--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_597.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_597.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32308-d76773-Reviews-Quality_Inn_Near_Downey_Studios-Downey_California.html</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>67</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Quality-Inn-Downey.h21485.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_597.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_597.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="328">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,874 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/08/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32308-d76773-r499394489-Quality_Inn_Near_Downey_Studios-Downey_California.html</t>
+  </si>
+  <si>
+    <t>32308</t>
+  </si>
+  <si>
+    <t>76773</t>
+  </si>
+  <si>
+    <t>499394489</t>
+  </si>
+  <si>
+    <t>07/07/2017</t>
+  </si>
+  <si>
+    <t>Good stay with no frills</t>
+  </si>
+  <si>
+    <t>Clean room, bedroom and bathroom. Nice person working the desk who communicated well. Well located near a freeway. Plentiful food and drinks for the free breakfast in the morning. We were satisfied and enjoyed the stay.</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32308-d76773-r468872294-Quality_Inn_Near_Downey_Studios-Downey_California.html</t>
+  </si>
+  <si>
+    <t>468872294</t>
+  </si>
+  <si>
+    <t>03/20/2017</t>
+  </si>
+  <si>
+    <t>Not what I was hoping for</t>
+  </si>
+  <si>
+    <t>Fondest online as it was about halfway to LAX for me. Check-in was a little hard based on language barrier, it is a motor inn park in the parking lot inter your hotel from the outside, which I consider to be less safe. Rooms are recently updated and modern but very small but it was comfortable and was clean however the exterior noise from being on a heavily traveled Street makes it not return visit, also it has the smallest breakfast area I have ever seen</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32308-d76773-r440779040-Quality_Inn_Near_Downey_Studios-Downey_California.html</t>
+  </si>
+  <si>
+    <t>440779040</t>
+  </si>
+  <si>
+    <t>11/28/2016</t>
+  </si>
+  <si>
+    <t>Asleep &amp; Absent</t>
+  </si>
+  <si>
+    <t>Arrived here Thanksgiving night around 11:30 PM to a sound asleep reservation desk and just 1 tiny parking space. Waking the guy for check in was difficult and after I did the process was weird and slow because he was still asleep. The guy asked me twice upon checkin for my room number as well as info on my car, but not for my name until I suggested he might need it after several minutes.Our room was clean and the pillows were absolutely fantastic. The heat was hard to control but good at drowning out the street and other noise.When I went to check out, I had to wait around again for the manager and send a maintenance/cleaning person to find him.  Be careful here they insisted on making a photo copy of my driver's license as well as credit card and when pushed wouldn't destroy the cc copy because they use manual imprint and mine isn't raised. This is the perfect scam for identity and cc theft and the info is in no way secured, violating every cc processing rule in the books.I'd stay again because the pillows were so good and it's close to where we needed to be the next day.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Arrived here Thanksgiving night around 11:30 PM to a sound asleep reservation desk and just 1 tiny parking space. Waking the guy for check in was difficult and after I did the process was weird and slow because he was still asleep. The guy asked me twice upon checkin for my room number as well as info on my car, but not for my name until I suggested he might need it after several minutes.Our room was clean and the pillows were absolutely fantastic. The heat was hard to control but good at drowning out the street and other noise.When I went to check out, I had to wait around again for the manager and send a maintenance/cleaning person to find him.  Be careful here they insisted on making a photo copy of my driver's license as well as credit card and when pushed wouldn't destroy the cc copy because they use manual imprint and mine isn't raised. This is the perfect scam for identity and cc theft and the info is in no way secured, violating every cc processing rule in the books.I'd stay again because the pillows were so good and it's close to where we needed to be the next day.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32308-d76773-r391146648-Quality_Inn_Near_Downey_Studios-Downey_California.html</t>
+  </si>
+  <si>
+    <t>391146648</t>
+  </si>
+  <si>
+    <t>07/10/2016</t>
+  </si>
+  <si>
+    <t>Nice Place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our stay here was not all that bad. We've had been to better places and we've been to worse places. One or two nights here is not bad at all. Breakfast in the morning is free and good. The news on the tv is never a good thing to watch while you eat. But it seams like that's what everybody wants to see. The room was remodeled, but that all was doing great. The bathroom door should had been changed. The cabinet in our room holding up the tv and hiding the refrigerator needed to be fix, but I can tell it was never done. </t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32308-d76773-r384296046-Quality_Inn_Near_Downey_Studios-Downey_California.html</t>
+  </si>
+  <si>
+    <t>384296046</t>
+  </si>
+  <si>
+    <t>06/20/2016</t>
+  </si>
+  <si>
+    <t>Good Stay</t>
+  </si>
+  <si>
+    <t>I stayed 3 nights and overall not to bad of a stay. The hotel rooms have recently been updated. I stayed here a few years back and can definitely see the difference. A few paint and wall issues from where someone pulled out the towel hanger in the bathroom and stains on the curtains, but everything else was clean.  I did have one issue the last night. The room air conditioner kept tripping the built in breaker. Every couple hours the room would get warm and I would have to get up and reset the switch for the A/C to turn back on.  Also I noticed without the noise from the A/C you could hear everything going on outside and the people with a dog next door.  I paid $380 for 3 nights and really got what I expected. MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed 3 nights and overall not to bad of a stay. The hotel rooms have recently been updated. I stayed here a few years back and can definitely see the difference. A few paint and wall issues from where someone pulled out the towel hanger in the bathroom and stains on the curtains, but everything else was clean.  I did have one issue the last night. The room air conditioner kept tripping the built in breaker. Every couple hours the room would get warm and I would have to get up and reset the switch for the A/C to turn back on.  Also I noticed without the noise from the A/C you could hear everything going on outside and the people with a dog next door.  I paid $380 for 3 nights and really got what I expected. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32308-d76773-r361970538-Quality_Inn_Near_Downey_Studios-Downey_California.html</t>
+  </si>
+  <si>
+    <t>361970538</t>
+  </si>
+  <si>
+    <t>04/06/2016</t>
+  </si>
+  <si>
+    <t>Nope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pretty sure there is prostitution going on in this hotel.  My best friend was asked twice if she "worked" there. The room was decent enough but wouldn't go back there.  When we arrived the front desk wasnt very welcoming. The hotel was pretty far away from what we cane to do so the location wasnt the best for us. But when you step outside to smoke and are asked by staff or other guests if your working there thats a red light. We were ready to fo after that. Luckily we weren't there long. We ended up staying another night but in a diff hotel. </t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32308-d76773-r345971579-Quality_Inn_Near_Downey_Studios-Downey_California.html</t>
+  </si>
+  <si>
+    <t>345971579</t>
+  </si>
+  <si>
+    <t>02/08/2016</t>
+  </si>
+  <si>
+    <t>New management needs to get their act together</t>
+  </si>
+  <si>
+    <t>New management needs to communicate better with the housekeeping staff so that rooms get cleaned on a daily basis and not every other day, like it was happening in my case. When it was a Comfort Inn it was run more smoothly. It's very convenient for me to stay there, but if I'm away from for the day I expect  a clean room to come back to.</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32308-d76773-r323085861-Quality_Inn_Near_Downey_Studios-Downey_California.html</t>
+  </si>
+  <si>
+    <t>323085861</t>
+  </si>
+  <si>
+    <t>10/29/2015</t>
+  </si>
+  <si>
+    <t>BEWARE! THIS IS NOT A COMFORT INN!</t>
+  </si>
+  <si>
+    <t>We payed for our room online under the belief that we were getting a Comfort Inn. When we arrived we quickly realized this was not a Comfort Inn and the nightmare ensued. This is not a Comfort Inn. This is the Cambridge Inn. When we got to our room I noticed the deadbolt didn't work, there were cigarette burns all in the carpet, and it was dirty. The next day checking out they said the room smelt like cigarette smoke (since neither me nor my husband smoke this is not possible) and "to kiss our deposit goodbye". The desk man got very aggressive with me and my husband and yelled at us. They stole our $100 cash deposit. Also, I watched the morning desk man put out the continental breakfast with his dirty bare hands. I would not recommended eating the food, that is a clear health code violation. Don't stay here they will steal your deposit.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>We payed for our room online under the belief that we were getting a Comfort Inn. When we arrived we quickly realized this was not a Comfort Inn and the nightmare ensued. This is not a Comfort Inn. This is the Cambridge Inn. When we got to our room I noticed the deadbolt didn't work, there were cigarette burns all in the carpet, and it was dirty. The next day checking out they said the room smelt like cigarette smoke (since neither me nor my husband smoke this is not possible) and "to kiss our deposit goodbye". The desk man got very aggressive with me and my husband and yelled at us. They stole our $100 cash deposit. Also, I watched the morning desk man put out the continental breakfast with his dirty bare hands. I would not recommended eating the food, that is a clear health code violation. Don't stay here they will steal your deposit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32308-d76773-r320707250-Quality_Inn_Near_Downey_Studios-Downey_California.html</t>
+  </si>
+  <si>
+    <t>320707250</t>
+  </si>
+  <si>
+    <t>10/21/2015</t>
+  </si>
+  <si>
+    <t>Worst stay ever!! Rip off!</t>
+  </si>
+  <si>
+    <t>Where to begin? Well first of all this is not even a Comfort Inn anymore as advertised on hotels.com. I called hotels.com to upgrade to a whirlpool room as pictured for an extra $50 a night. Upon arrival the motel was now called Cambridge Inn. I was given the room right next to the office door which blocked off my door when open and was highly noisy. The room was nothing as pictured!! It's the basic tiny king bed room with a converted bathtub in the restroom. Definitely not the large room with whirlpool near the bed as pictured. I noticed the TV only had 3 channels and the fridge did not work. I called the rude woman at the front desk who said she didn't know about the TV channels offered. She placed me on hold for several minutes so I hung up and called Hotels.com to share my findings and asked to be moved to an upstairs room. Next thing I know I have 3 people knocking on the door: The maintenance man, manager, and awful front desk woman. She began to yell and verbally attack me for complaining and said she would charge my credit card $300 because my backpack smelled like medical marijuana. "You want to call and complain, Jason, well now I have a complaint against you and will charge you $300." She was acting very immature, rude, and hostile. I told her I would...Where to begin? Well first of all this is not even a Comfort Inn anymore as advertised on hotels.com. I called hotels.com to upgrade to a whirlpool room as pictured for an extra $50 a night. Upon arrival the motel was now called Cambridge Inn. I was given the room right next to the office door which blocked off my door when open and was highly noisy. The room was nothing as pictured!! It's the basic tiny king bed room with a converted bathtub in the restroom. Definitely not the large room with whirlpool near the bed as pictured. I noticed the TV only had 3 channels and the fridge did not work. I called the rude woman at the front desk who said she didn't know about the TV channels offered. She placed me on hold for several minutes so I hung up and called Hotels.com to share my findings and asked to be moved to an upstairs room. Next thing I know I have 3 people knocking on the door: The maintenance man, manager, and awful front desk woman. She began to yell and verbally attack me for complaining and said she would charge my credit card $300 because my backpack smelled like medical marijuana. "You want to call and complain, Jason, well now I have a complaint against you and will charge you $300." She was acting very immature, rude, and hostile. I told her I would file a chargeback and press charges for fraud if she attempted to charge my card. I was offered a cheaper room which didn't have the whirlpool I already paid for. I said no and asked them to move me to another room in the morning. The manager agreed but it wasn't until the next afternoon until I finally was able to move to another room. Keep in mind I never smoked in the room but the smell of my backpack is what set off the retaliation from the front desk clerk which spoke in broken English. Avoid this motel at all costs and DO NOT be fooled by the "Whirlpool room" pictures because you won't get the room pictured!MoreShow less</t>
+  </si>
+  <si>
+    <t>Where to begin? Well first of all this is not even a Comfort Inn anymore as advertised on hotels.com. I called hotels.com to upgrade to a whirlpool room as pictured for an extra $50 a night. Upon arrival the motel was now called Cambridge Inn. I was given the room right next to the office door which blocked off my door when open and was highly noisy. The room was nothing as pictured!! It's the basic tiny king bed room with a converted bathtub in the restroom. Definitely not the large room with whirlpool near the bed as pictured. I noticed the TV only had 3 channels and the fridge did not work. I called the rude woman at the front desk who said she didn't know about the TV channels offered. She placed me on hold for several minutes so I hung up and called Hotels.com to share my findings and asked to be moved to an upstairs room. Next thing I know I have 3 people knocking on the door: The maintenance man, manager, and awful front desk woman. She began to yell and verbally attack me for complaining and said she would charge my credit card $300 because my backpack smelled like medical marijuana. "You want to call and complain, Jason, well now I have a complaint against you and will charge you $300." She was acting very immature, rude, and hostile. I told her I would...Where to begin? Well first of all this is not even a Comfort Inn anymore as advertised on hotels.com. I called hotels.com to upgrade to a whirlpool room as pictured for an extra $50 a night. Upon arrival the motel was now called Cambridge Inn. I was given the room right next to the office door which blocked off my door when open and was highly noisy. The room was nothing as pictured!! It's the basic tiny king bed room with a converted bathtub in the restroom. Definitely not the large room with whirlpool near the bed as pictured. I noticed the TV only had 3 channels and the fridge did not work. I called the rude woman at the front desk who said she didn't know about the TV channels offered. She placed me on hold for several minutes so I hung up and called Hotels.com to share my findings and asked to be moved to an upstairs room. Next thing I know I have 3 people knocking on the door: The maintenance man, manager, and awful front desk woman. She began to yell and verbally attack me for complaining and said she would charge my credit card $300 because my backpack smelled like medical marijuana. "You want to call and complain, Jason, well now I have a complaint against you and will charge you $300." She was acting very immature, rude, and hostile. I told her I would file a chargeback and press charges for fraud if she attempted to charge my card. I was offered a cheaper room which didn't have the whirlpool I already paid for. I said no and asked them to move me to another room in the morning. The manager agreed but it wasn't until the next afternoon until I finally was able to move to another room. Keep in mind I never smoked in the room but the smell of my backpack is what set off the retaliation from the front desk clerk which spoke in broken English. Avoid this motel at all costs and DO NOT be fooled by the "Whirlpool room" pictures because you won't get the room pictured!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32308-d76773-r241029065-Quality_Inn_Near_Downey_Studios-Downey_California.html</t>
+  </si>
+  <si>
+    <t>241029065</t>
+  </si>
+  <si>
+    <t>11/22/2014</t>
+  </si>
+  <si>
+    <t>Looks can be deceiving</t>
+  </si>
+  <si>
+    <t>At first I was not thrilled with the hotel but once I enter my room what a wonderful surprise. The rooms are newly renovated. We got plenty of space for Family of 4. There is a washer and a dryer in the property useful if you want to save some bucks and be clean. Nice breakfast and very good price. There is a Target store, attractions and restaurants near the hotel. It is a nice and quiet area. we did not feel unsafe and we got near access to all the freeways. We spent one week so we got plenty of time to experience the hotel and the area. The property is under renovation and don't hesitate to use the hotel good service and amenities for a really good price.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>CID_Manager, Manager at Quality Inn Near Downey Studios, responded to this reviewResponded November 26, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 26, 2014</t>
+  </si>
+  <si>
+    <t>At first I was not thrilled with the hotel but once I enter my room what a wonderful surprise. The rooms are newly renovated. We got plenty of space for Family of 4. There is a washer and a dryer in the property useful if you want to save some bucks and be clean. Nice breakfast and very good price. There is a Target store, attractions and restaurants near the hotel. It is a nice and quiet area. we did not feel unsafe and we got near access to all the freeways. We spent one week so we got plenty of time to experience the hotel and the area. The property is under renovation and don't hesitate to use the hotel good service and amenities for a really good price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32308-d76773-r236266742-Quality_Inn_Near_Downey_Studios-Downey_California.html</t>
+  </si>
+  <si>
+    <t>236266742</t>
+  </si>
+  <si>
+    <t>10/25/2014</t>
+  </si>
+  <si>
+    <t>Ghetto doesn't even begin to describe. ..</t>
+  </si>
+  <si>
+    <t>I arrived at this hotel around 1030 at night. There was a VERY unclear sign pointing to the lobby, which is apparently under construction.  The lady working there didn't acknowledge our presence at the small window and just waved her hand to signal us around... me and another stranger proceeded to work around the building.  After no luck we came back and after probably 5 more minutes of not being acknowledged, we were finally "buzzed" in through a guest room under construction.  Completely unprofessional and rude. There could be MUCH better signage ESPECIALLY at night when people are arriving exhausted.
+Next, they didn't have any rooms with 2 beds so a roller bed was provided. Upon inspection of the roller bed I found multiple pieces of hair that obviously weren't mine. I also checked under the mattress of our bed (I work In hospitality myself,  and know what can live under there) and did not find bugs but I did find an abundance of crumbs and pieces of hair. The sink/ bathroom seemed to be falling apart... the surrounding area around the hotel is extremely ghetto with weird people lurking in the parking lot around our vehicles. There is also a creepy jacuzzi in the back of the parking lot.
+After being away from the hotel for work for one day, I came back to find our room hadn't even been serviced and it was 5pm. Absolutely ridiculous. Room 206....I arrived at this hotel around 1030 at night. There was a VERY unclear sign pointing to the lobby, which is apparently under construction.  The lady working there didn't acknowledge our presence at the small window and just waved her hand to signal us around... me and another stranger proceeded to work around the building.  After no luck we came back and after probably 5 more minutes of not being acknowledged, we were finally "buzzed" in through a guest room under construction.  Completely unprofessional and rude. There could be MUCH better signage ESPECIALLY at night when people are arriving exhausted.Next, they didn't have any rooms with 2 beds so a roller bed was provided. Upon inspection of the roller bed I found multiple pieces of hair that obviously weren't mine. I also checked under the mattress of our bed (I work In hospitality myself,  and know what can live under there) and did not find bugs but I did find an abundance of crumbs and pieces of hair. The sink/ bathroom seemed to be falling apart... the surrounding area around the hotel is extremely ghetto with weird people lurking in the parking lot around our vehicles. There is also a creepy jacuzzi in the back of the parking lot.After being away from the hotel for work for one day, I came back to find our room hadn't even been serviced and it was 5pm. Absolutely ridiculous. Room 206. Do not stay here! It is horrible and as trashy as it getsMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>CID_Manager, Manager at Quality Inn Near Downey Studios, responded to this reviewResponded October 28, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 28, 2014</t>
+  </si>
+  <si>
+    <t>I arrived at this hotel around 1030 at night. There was a VERY unclear sign pointing to the lobby, which is apparently under construction.  The lady working there didn't acknowledge our presence at the small window and just waved her hand to signal us around... me and another stranger proceeded to work around the building.  After no luck we came back and after probably 5 more minutes of not being acknowledged, we were finally "buzzed" in through a guest room under construction.  Completely unprofessional and rude. There could be MUCH better signage ESPECIALLY at night when people are arriving exhausted.
+Next, they didn't have any rooms with 2 beds so a roller bed was provided. Upon inspection of the roller bed I found multiple pieces of hair that obviously weren't mine. I also checked under the mattress of our bed (I work In hospitality myself,  and know what can live under there) and did not find bugs but I did find an abundance of crumbs and pieces of hair. The sink/ bathroom seemed to be falling apart... the surrounding area around the hotel is extremely ghetto with weird people lurking in the parking lot around our vehicles. There is also a creepy jacuzzi in the back of the parking lot.
+After being away from the hotel for work for one day, I came back to find our room hadn't even been serviced and it was 5pm. Absolutely ridiculous. Room 206....I arrived at this hotel around 1030 at night. There was a VERY unclear sign pointing to the lobby, which is apparently under construction.  The lady working there didn't acknowledge our presence at the small window and just waved her hand to signal us around... me and another stranger proceeded to work around the building.  After no luck we came back and after probably 5 more minutes of not being acknowledged, we were finally "buzzed" in through a guest room under construction.  Completely unprofessional and rude. There could be MUCH better signage ESPECIALLY at night when people are arriving exhausted.Next, they didn't have any rooms with 2 beds so a roller bed was provided. Upon inspection of the roller bed I found multiple pieces of hair that obviously weren't mine. I also checked under the mattress of our bed (I work In hospitality myself,  and know what can live under there) and did not find bugs but I did find an abundance of crumbs and pieces of hair. The sink/ bathroom seemed to be falling apart... the surrounding area around the hotel is extremely ghetto with weird people lurking in the parking lot around our vehicles. There is also a creepy jacuzzi in the back of the parking lot.After being away from the hotel for work for one day, I came back to find our room hadn't even been serviced and it was 5pm. Absolutely ridiculous. Room 206. Do not stay here! It is horrible and as trashy as it getsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32308-d76773-r228219658-Quality_Inn_Near_Downey_Studios-Downey_California.html</t>
+  </si>
+  <si>
+    <t>228219658</t>
+  </si>
+  <si>
+    <t>09/10/2014</t>
+  </si>
+  <si>
+    <t>Exterior trashy,  interior passable</t>
+  </si>
+  <si>
+    <t>The hotel is in a convenient location. Pulling into the lot we saw large amounts of debris from room remodels which was piled next to the rear parking area. Very unsightly, and can be seen from the Jacuzzi placed in the rear corner of the back parking area. Arrived after 8:00pm and was buzzed" into the small lobby to check in. The surrounding area justifies the need for additional security. Pleasant lady assisted us and we proceeded to the second floor. Walking to the room you pass by very poorly maintained walkways, extremely shabby exterior! We ask a passerby about the Jacuzzi, she warned that it was "scary and very dirty". Needless to say we didn't go in it. Entering the room provided some relief. The room was clean, and mostly updated with a relatively comfortable bed. The only obvious flaw was the damaged sink and some knicks and scratches on the wall and door. Air conditioning worked well as did the tv. We won't be partaking in the breakfast, but based on other reviews it's probably mediocre. Thanks for reading!MoreShow less</t>
+  </si>
+  <si>
+    <t>CID_Manager, Manager at Quality Inn Near Downey Studios, responded to this reviewResponded September 18, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 18, 2014</t>
+  </si>
+  <si>
+    <t>The hotel is in a convenient location. Pulling into the lot we saw large amounts of debris from room remodels which was piled next to the rear parking area. Very unsightly, and can be seen from the Jacuzzi placed in the rear corner of the back parking area. Arrived after 8:00pm and was buzzed" into the small lobby to check in. The surrounding area justifies the need for additional security. Pleasant lady assisted us and we proceeded to the second floor. Walking to the room you pass by very poorly maintained walkways, extremely shabby exterior! We ask a passerby about the Jacuzzi, she warned that it was "scary and very dirty". Needless to say we didn't go in it. Entering the room provided some relief. The room was clean, and mostly updated with a relatively comfortable bed. The only obvious flaw was the damaged sink and some knicks and scratches on the wall and door. Air conditioning worked well as did the tv. We won't be partaking in the breakfast, but based on other reviews it's probably mediocre. Thanks for reading!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32308-d76773-r191748802-Quality_Inn_Near_Downey_Studios-Downey_California.html</t>
+  </si>
+  <si>
+    <t>191748802</t>
+  </si>
+  <si>
+    <t>01/22/2014</t>
+  </si>
+  <si>
+    <t>Barely met my needs</t>
+  </si>
+  <si>
+    <t>They are in the process of remodeling the hotel, but it still needs some updating. The windows are horrible, and they keep out hardly any noise. I am a heavy sleeper, and I can sleep through a lot, but I woke up numerous times each night due to noises. Sometimes because of vehicles and sometimes because of guests that were watching tv and being loud until well after midnight. There was some sort of trimming going on over a block away that sounded like it was right next to the hotel. The place was fairly clean, but there was nothing great about it, it was just a basic hotel. I won't stay there again because I would rather spend more money in a nicer area for a nicer hotel.The place was clean enough, but I probably won't stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>CID_Manager, Manager at Quality Inn Near Downey Studios, responded to this reviewResponded January 23, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 23, 2014</t>
+  </si>
+  <si>
+    <t>They are in the process of remodeling the hotel, but it still needs some updating. The windows are horrible, and they keep out hardly any noise. I am a heavy sleeper, and I can sleep through a lot, but I woke up numerous times each night due to noises. Sometimes because of vehicles and sometimes because of guests that were watching tv and being loud until well after midnight. There was some sort of trimming going on over a block away that sounded like it was right next to the hotel. The place was fairly clean, but there was nothing great about it, it was just a basic hotel. I won't stay there again because I would rather spend more money in a nicer area for a nicer hotel.The place was clean enough, but I probably won't stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32308-d76773-r188538385-Quality_Inn_Near_Downey_Studios-Downey_California.html</t>
+  </si>
+  <si>
+    <t>188538385</t>
+  </si>
+  <si>
+    <t>12/25/2013</t>
+  </si>
+  <si>
+    <t>Terrible hotel!</t>
+  </si>
+  <si>
+    <t>I would not recommend this hotel to anybody! The room they gave us at first, the light switch did not work plus it smelled like they been doing drugs in that room. Also there was a lot of crazy people in this hotel and it is not a good area.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>CID_Manager, Manager at Quality Inn Near Downey Studios, responded to this reviewResponded December 27, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 27, 2013</t>
+  </si>
+  <si>
+    <t>I would not recommend this hotel to anybody! The room they gave us at first, the light switch did not work plus it smelled like they been doing drugs in that room. Also there was a lot of crazy people in this hotel and it is not a good area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32308-d76773-r181802430-Quality_Inn_Near_Downey_Studios-Downey_California.html</t>
+  </si>
+  <si>
+    <t>181802430</t>
+  </si>
+  <si>
+    <t>10/21/2013</t>
+  </si>
+  <si>
+    <t>Needs lots of work and TLC</t>
+  </si>
+  <si>
+    <t>The tub was patched poorly.  The shower curtain rod was about ready to fall down.  The carpet was stained, faded, and needed to be stretched.  The corners by the sink and the baseboard were really dirty.  Other than the cheap desk chair, there was no other place to sit.  There was a desk, but no light nearby.  The sink faucet leaked badly at the base.  The sink was cracked by the drain.  This really got to me.  There was a sign in the breakfast area asking that no food be brought to the rooms, yet there were only 2 tables.  Unlike most Comfort Inns, the rooms have exterior entrances.  Some of the rooms were being remodeled, but I would not stay there again, since they let my room get into such disrepair.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>CID_Manager, General Manager at Quality Inn Near Downey Studios, responded to this reviewResponded October 24, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 24, 2013</t>
+  </si>
+  <si>
+    <t>The tub was patched poorly.  The shower curtain rod was about ready to fall down.  The carpet was stained, faded, and needed to be stretched.  The corners by the sink and the baseboard were really dirty.  Other than the cheap desk chair, there was no other place to sit.  There was a desk, but no light nearby.  The sink faucet leaked badly at the base.  The sink was cracked by the drain.  This really got to me.  There was a sign in the breakfast area asking that no food be brought to the rooms, yet there were only 2 tables.  Unlike most Comfort Inns, the rooms have exterior entrances.  Some of the rooms were being remodeled, but I would not stay there again, since they let my room get into such disrepair.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32308-d76773-r151832162-Quality_Inn_Near_Downey_Studios-Downey_California.html</t>
+  </si>
+  <si>
+    <t>151832162</t>
+  </si>
+  <si>
+    <t>02/10/2013</t>
+  </si>
+  <si>
+    <t>Good location, on site expereince can vary wildly...</t>
+  </si>
+  <si>
+    <t>It depends upon which room you are given. Some rooms in the same cateogry are twice as large as others. We had two rooms in our reservation, both had two queen beds. One room was twice the size of the other and was also much cleaner and better maintained. Our room had a water leak in the ceiling and the carpet looked as if it had been wet. For the price this is a good place to stay, but you can only expect what you are paying for. Be aware that there is the potential for some undesirable people around the property. One night we had a drunken woman screaming the the parking lot that she was going to kill herself. Two mornings later we saw what appeared to be a prostitute waiting for visitors in her room with the door proped open half way. For us we didn't feel in danger - we were looking for a low cost alternative. But some people may not be comfortable with this. The breakfast is acceptable.Forget the pool - it's the size of a hot tub in the corner of parking lot. very strange.the property is in a convenient location for highways access, etc.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>It depends upon which room you are given. Some rooms in the same cateogry are twice as large as others. We had two rooms in our reservation, both had two queen beds. One room was twice the size of the other and was also much cleaner and better maintained. Our room had a water leak in the ceiling and the carpet looked as if it had been wet. For the price this is a good place to stay, but you can only expect what you are paying for. Be aware that there is the potential for some undesirable people around the property. One night we had a drunken woman screaming the the parking lot that she was going to kill herself. Two mornings later we saw what appeared to be a prostitute waiting for visitors in her room with the door proped open half way. For us we didn't feel in danger - we were looking for a low cost alternative. But some people may not be comfortable with this. The breakfast is acceptable.Forget the pool - it's the size of a hot tub in the corner of parking lot. very strange.the property is in a convenient location for highways access, etc.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32308-d76773-r150969591-Quality_Inn_Near_Downey_Studios-Downey_California.html</t>
+  </si>
+  <si>
+    <t>150969591</t>
+  </si>
+  <si>
+    <t>01/29/2013</t>
+  </si>
+  <si>
+    <t>Very central location and very professional front desk staff make up for a few shortcomings</t>
+  </si>
+  <si>
+    <t>This comfort inn is very conveniently close to  the 615 and very centrally located in Downey. It is close to very good shopping(the mall is practically across the street). We picked it, as we attended  a Tango event, and it was in walking distance. We were promptly checked in, and the good sized bedroom had a very comfortable King size bed with enough comfy pillows to cozy up. It is certainly a bonus, that the unit comes with a fridge and a microwave!(We like that, as we enjoy fixing our own food.) The location right on Firestone Blvd. is not quiet, and as the hotel is build in  a horseshoe shape, all rooms are more or less exposed to the same noise level from the street. The room was clean,bathroom tissue was missing, but it was promptly brought when we asked for it. The only technical flaw was an extremely slow draining bathroom sink, It has to be mentioned that the area appears safe even in the late hours. We walked home after midnight. For convenience this place is very good, the staff is very friendly, and a breakfast is included.MoreShow less</t>
+  </si>
+  <si>
+    <t>This comfort inn is very conveniently close to  the 615 and very centrally located in Downey. It is close to very good shopping(the mall is practically across the street). We picked it, as we attended  a Tango event, and it was in walking distance. We were promptly checked in, and the good sized bedroom had a very comfortable King size bed with enough comfy pillows to cozy up. It is certainly a bonus, that the unit comes with a fridge and a microwave!(We like that, as we enjoy fixing our own food.) The location right on Firestone Blvd. is not quiet, and as the hotel is build in  a horseshoe shape, all rooms are more or less exposed to the same noise level from the street. The room was clean,bathroom tissue was missing, but it was promptly brought when we asked for it. The only technical flaw was an extremely slow draining bathroom sink, It has to be mentioned that the area appears safe even in the late hours. We walked home after midnight. For convenience this place is very good, the staff is very friendly, and a breakfast is included.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32308-d76773-r149256016-Quality_Inn_Near_Downey_Studios-Downey_California.html</t>
+  </si>
+  <si>
+    <t>149256016</t>
+  </si>
+  <si>
+    <t>01/09/2013</t>
+  </si>
+  <si>
+    <t>Last minute booking</t>
+  </si>
+  <si>
+    <t>I needed a room at the last minute and the manager happened to be on site so he remembered me and helped me book a room that I would have normally booked online. It's nice to be remembered , and it helped to get into a room quickly.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32308-d76773-r120548747-Quality_Inn_Near_Downey_Studios-Downey_California.html</t>
+  </si>
+  <si>
+    <t>120548747</t>
+  </si>
+  <si>
+    <t>11/13/2011</t>
+  </si>
+  <si>
+    <t>Clean and Comfortable except Some Road Noise</t>
+  </si>
+  <si>
+    <t>We tried to check in around 3:30 p.m. but a lower level room was not available.  We were offered an upstairs room but declined.   At 4:50 we were assigned to  a handicapped lower level  room.  The room was clean but austerer which is probably due to it being furnished for handicapped.   The room was spacious with frig, microwave, coffee pot and hair dryer.   The room appeared to have been recently refurbished and the bathroom was immaculate.    We passed by some of the non-handicapped rooms and they were nicely furnished.   The breakfast was good, seating area small, but very clean.  My only complaint was that there was some road noise which subsided very late at night.   Our room was close to the office and the road.  The noise may not be so noticeable if you get an upstairs room or room close to the back of the hotel.   We stayed one night before a cruise out of Long Beach.  The hotel is affordable, good value, and I  would  recommend this hotel for a pre-cruise stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>We tried to check in around 3:30 p.m. but a lower level room was not available.  We were offered an upstairs room but declined.   At 4:50 we were assigned to  a handicapped lower level  room.  The room was clean but austerer which is probably due to it being furnished for handicapped.   The room was spacious with frig, microwave, coffee pot and hair dryer.   The room appeared to have been recently refurbished and the bathroom was immaculate.    We passed by some of the non-handicapped rooms and they were nicely furnished.   The breakfast was good, seating area small, but very clean.  My only complaint was that there was some road noise which subsided very late at night.   Our room was close to the office and the road.  The noise may not be so noticeable if you get an upstairs room or room close to the back of the hotel.   We stayed one night before a cruise out of Long Beach.  The hotel is affordable, good value, and I  would  recommend this hotel for a pre-cruise stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32308-d76773-r119001977-Quality_Inn_Near_Downey_Studios-Downey_California.html</t>
+  </si>
+  <si>
+    <t>119001977</t>
+  </si>
+  <si>
+    <t>10/06/2011</t>
+  </si>
+  <si>
+    <t>A great place to stay.</t>
+  </si>
+  <si>
+    <t>It was a great experience staying in this hotel. Overall it was super clean and beyond of greatness attention by the employees. I recomended it completly and look foward in staying in this hotel again along with my family. I trully recomend it very much.</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32308-d76773-r103554018-Quality_Inn_Near_Downey_Studios-Downey_California.html</t>
+  </si>
+  <si>
+    <t>103554018</t>
+  </si>
+  <si>
+    <t>04/10/2011</t>
+  </si>
+  <si>
+    <t>Pillows too soft and traffic too loud.</t>
+  </si>
+  <si>
+    <t>My stay overall was good, and the front desk was very courteous and helpful to me, but you could here all the cars go by, but window was closed, and I would prefer pillows to be firmer. Too many pillows,all too soft. All I need is one or two firm pillows for a good nights sleep.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>CID_Manager, General Manager at Quality Inn Near Downey Studios, responded to this reviewResponded May 9, 2011</t>
+  </si>
+  <si>
+    <t>Responded May 9, 2011</t>
+  </si>
+  <si>
+    <t>My stay overall was good, and the front desk was very courteous and helpful to me, but you could here all the cars go by, but window was closed, and I would prefer pillows to be firmer. Too many pillows,all too soft. All I need is one or two firm pillows for a good nights sleep.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32308-d76773-r96653224-Quality_Inn_Near_Downey_Studios-Downey_California.html</t>
+  </si>
+  <si>
+    <t>96653224</t>
+  </si>
+  <si>
+    <t>02/14/2011</t>
+  </si>
+  <si>
+    <t>Horrible Hotel, Horrible Service! Big Liability</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel because of the reviews &amp; of course the price was decent.  But unfortunately our stay was horrible.  The hotel is in a terrible location with a lot of loud noise.  They put us in a room right by the street where you could here all the noise &amp; cars drive by so we asked to be moved &amp; they said they had nothing available for us. So we stayed in the room. My husband woke up @ 1am in the morning to a loud dripping noise.  There was water coming through the wall from the room above us! When he touched the wall, his hand went through &amp; the whole wall was soaking wet. we knew it was totally unsafe so he asked to be moved because we felt it was very dangerous for our family. Who knows how long its been that way!  We had to carry our son who was already asleep to the floor above us! We complained the next morning &amp; the manager said there was really nothing he could do for us! We were staying there for 2 nights &amp; He didn't even offer to give us 1 free night! The new room they gave us wasn't much better. We could here dripping noises but thank good ness it didn't seap through the walls! The ironing board was broken &amp; they only gave us 2 towels.  Please Don't Stay Here.......We stayed at this hotel because of the reviews &amp; of course the price was decent.  But unfortunately our stay was horrible.  The hotel is in a terrible location with a lot of loud noise.  They put us in a room right by the street where you could here all the noise &amp; cars drive by so we asked to be moved &amp; they said they had nothing available for us. So we stayed in the room. My husband woke up @ 1am in the morning to a loud dripping noise.  There was water coming through the wall from the room above us! When he touched the wall, his hand went through &amp; the whole wall was soaking wet. we knew it was totally unsafe so he asked to be moved because we felt it was very dangerous for our family. Who knows how long its been that way!  We had to carry our son who was already asleep to the floor above us! We complained the next morning &amp; the manager said there was really nothing he could do for us! We were staying there for 2 nights &amp; He didn't even offer to give us 1 free night! The new room they gave us wasn't much better. We could here dripping noises but thank good ness it didn't seap through the walls! The ironing board was broken &amp; they only gave us 2 towels.  Please Don't Stay Here.... Even though it is a good price it is a terrible hotel with terrible service!!!!!!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2011</t>
+  </si>
+  <si>
+    <t>CID_Manager, General Manager at Quality Inn Near Downey Studios, responded to this reviewResponded February 23, 2011</t>
+  </si>
+  <si>
+    <t>Responded February 23, 2011</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel because of the reviews &amp; of course the price was decent.  But unfortunately our stay was horrible.  The hotel is in a terrible location with a lot of loud noise.  They put us in a room right by the street where you could here all the noise &amp; cars drive by so we asked to be moved &amp; they said they had nothing available for us. So we stayed in the room. My husband woke up @ 1am in the morning to a loud dripping noise.  There was water coming through the wall from the room above us! When he touched the wall, his hand went through &amp; the whole wall was soaking wet. we knew it was totally unsafe so he asked to be moved because we felt it was very dangerous for our family. Who knows how long its been that way!  We had to carry our son who was already asleep to the floor above us! We complained the next morning &amp; the manager said there was really nothing he could do for us! We were staying there for 2 nights &amp; He didn't even offer to give us 1 free night! The new room they gave us wasn't much better. We could here dripping noises but thank good ness it didn't seap through the walls! The ironing board was broken &amp; they only gave us 2 towels.  Please Don't Stay Here.......We stayed at this hotel because of the reviews &amp; of course the price was decent.  But unfortunately our stay was horrible.  The hotel is in a terrible location with a lot of loud noise.  They put us in a room right by the street where you could here all the noise &amp; cars drive by so we asked to be moved &amp; they said they had nothing available for us. So we stayed in the room. My husband woke up @ 1am in the morning to a loud dripping noise.  There was water coming through the wall from the room above us! When he touched the wall, his hand went through &amp; the whole wall was soaking wet. we knew it was totally unsafe so he asked to be moved because we felt it was very dangerous for our family. Who knows how long its been that way!  We had to carry our son who was already asleep to the floor above us! We complained the next morning &amp; the manager said there was really nothing he could do for us! We were staying there for 2 nights &amp; He didn't even offer to give us 1 free night! The new room they gave us wasn't much better. We could here dripping noises but thank good ness it didn't seap through the walls! The ironing board was broken &amp; they only gave us 2 towels.  Please Don't Stay Here.... Even though it is a good price it is a terrible hotel with terrible service!!!!!!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32308-d76773-r89617445-Quality_Inn_Near_Downey_Studios-Downey_California.html</t>
+  </si>
+  <si>
+    <t>89617445</t>
+  </si>
+  <si>
+    <t>12/11/2010</t>
+  </si>
+  <si>
+    <t>WARNING !!  KEEP YOUR ITEMS LOCKED UP !!</t>
+  </si>
+  <si>
+    <t>When I checked for hotels in Downey I read the reviews on this hotel and was please to see positive reviews. I had to be there for 5 days for a medical proceedure.  At first glance I was pleased, Free everything was appealing and no complaints of bed bugs.
+The first night I realized that the door to my room never reached the floor, there was a 1 and a half inch gap under the door.  Noise, Noise, Noise from traffic and no way to stop it. Single pane windows and that gap provided no stopping of any outside noise. I purchased earplugs and that took care of the problem. I had requested that no one enter my room for any reason as I was to have surgery and did not want to be disturbed.  The day of my surgery I was gone most of the day and night  When I returned I went straight to bed.  The next morning I realized my Ipod was gone. I reported it to managment and they said they would check into it.  Later they said they checked security tapes and no one entered my room. I never saw any tapes or was offered any redress for my Ipod. I know someone went inmy room because several towels were missing and whoever took my Ipod left the ear buds that were attached to it.  Managment took no responsibility and without looking at the tapes...When I checked for hotels in Downey I read the reviews on this hotel and was please to see positive reviews. I had to be there for 5 days for a medical proceedure.  At first glance I was pleased, Free everything was appealing and no complaints of bed bugs.The first night I realized that the door to my room never reached the floor, there was a 1 and a half inch gap under the door.  Noise, Noise, Noise from traffic and no way to stop it. Single pane windows and that gap provided no stopping of any outside noise. I purchased earplugs and that took care of the problem. I had requested that no one enter my room for any reason as I was to have surgery and did not want to be disturbed.  The day of my surgery I was gone most of the day and night  When I returned I went straight to bed.  The next morning I realized my Ipod was gone. I reported it to managment and they said they would check into it.  Later they said they checked security tapes and no one entered my room. I never saw any tapes or was offered any redress for my Ipod. I know someone went inmy room because several towels were missing and whoever took my Ipod left the ear buds that were attached to it.  Managment took no responsibility and without looking at the tapes myself, I have no way of proving anything so they can say or do whatever they want. I was happy up until this point but after this incident I would say dont risk it, dont stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
+    <t>CID_Manager, General Manager at Quality Inn Near Downey Studios, responded to this reviewResponded December 13, 2010</t>
+  </si>
+  <si>
+    <t>Responded December 13, 2010</t>
+  </si>
+  <si>
+    <t>When I checked for hotels in Downey I read the reviews on this hotel and was please to see positive reviews. I had to be there for 5 days for a medical proceedure.  At first glance I was pleased, Free everything was appealing and no complaints of bed bugs.
+The first night I realized that the door to my room never reached the floor, there was a 1 and a half inch gap under the door.  Noise, Noise, Noise from traffic and no way to stop it. Single pane windows and that gap provided no stopping of any outside noise. I purchased earplugs and that took care of the problem. I had requested that no one enter my room for any reason as I was to have surgery and did not want to be disturbed.  The day of my surgery I was gone most of the day and night  When I returned I went straight to bed.  The next morning I realized my Ipod was gone. I reported it to managment and they said they would check into it.  Later they said they checked security tapes and no one entered my room. I never saw any tapes or was offered any redress for my Ipod. I know someone went inmy room because several towels were missing and whoever took my Ipod left the ear buds that were attached to it.  Managment took no responsibility and without looking at the tapes...When I checked for hotels in Downey I read the reviews on this hotel and was please to see positive reviews. I had to be there for 5 days for a medical proceedure.  At first glance I was pleased, Free everything was appealing and no complaints of bed bugs.The first night I realized that the door to my room never reached the floor, there was a 1 and a half inch gap under the door.  Noise, Noise, Noise from traffic and no way to stop it. Single pane windows and that gap provided no stopping of any outside noise. I purchased earplugs and that took care of the problem. I had requested that no one enter my room for any reason as I was to have surgery and did not want to be disturbed.  The day of my surgery I was gone most of the day and night  When I returned I went straight to bed.  The next morning I realized my Ipod was gone. I reported it to managment and they said they would check into it.  Later they said they checked security tapes and no one entered my room. I never saw any tapes or was offered any redress for my Ipod. I know someone went inmy room because several towels were missing and whoever took my Ipod left the ear buds that were attached to it.  Managment took no responsibility and without looking at the tapes myself, I have no way of proving anything so they can say or do whatever they want. I was happy up until this point but after this incident I would say dont risk it, dont stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32308-d76773-r69403633-Quality_Inn_Near_Downey_Studios-Downey_California.html</t>
+  </si>
+  <si>
+    <t>69403633</t>
+  </si>
+  <si>
+    <t>07/01/2010</t>
+  </si>
+  <si>
+    <t>I myself like this hotel very much it is...</t>
+  </si>
+  <si>
+    <t>I myself like this hotel very much it is very comfortable and the service is good the provide breakfAst in the morning how great!! They give u good tv and movies that come on are awesome!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32308-d76773-r67716732-Quality_Inn_Near_Downey_Studios-Downey_California.html</t>
+  </si>
+  <si>
+    <t>67716732</t>
+  </si>
+  <si>
+    <t>06/16/2010</t>
+  </si>
+  <si>
+    <t>Great Staff - Room OK</t>
+  </si>
+  <si>
+    <t>I used this room while a friend was in the hospital - I had schoolwork and needed the WIFI.  Appreciated the refrig and microwave, but it would have been nice to have a table in the room.Other than that, it was ok.  The staff was very helpful, gave me a nice room near the elevator where it was safe.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2010</t>
+  </si>
+  <si>
+    <t>CID_Manager, General Manager at Quality Inn Near Downey Studios, responded to this reviewResponded June 18, 2010</t>
+  </si>
+  <si>
+    <t>Responded June 18, 2010</t>
+  </si>
+  <si>
+    <t>I used this room while a friend was in the hospital - I had schoolwork and needed the WIFI.  Appreciated the refrig and microwave, but it would have been nice to have a table in the room.Other than that, it was ok.  The staff was very helpful, gave me a nice room near the elevator where it was safe.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32308-d76773-r67714249-Quality_Inn_Near_Downey_Studios-Downey_California.html</t>
+  </si>
+  <si>
+    <t>67714249</t>
+  </si>
+  <si>
+    <t>Very comfortable,clean and pleasent hotel</t>
+  </si>
+  <si>
+    <t>The hotel is located in prime location in Downey California. The service was very pleasent, that agent was nice and welcoming. The room itself is very clean, and a small microwave and fridge to accommodate breakfast food. All together i like the location and service.  I highly recommend this hotel if youre in Downey for business of leisure.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel is located in prime location in Downey California. The service was very pleasent, that agent was nice and welcoming. The room itself is very clean, and a small microwave and fridge to accommodate breakfast food. All together i like the location and service.  I highly recommend this hotel if youre in Downey for business of leisure.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32308-d76773-r67333077-Quality_Inn_Near_Downey_Studios-Downey_California.html</t>
+  </si>
+  <si>
+    <t>67333077</t>
+  </si>
+  <si>
+    <t>06/13/2010</t>
+  </si>
+  <si>
+    <t>I still don't understand how this place has so many positive reviews...</t>
+  </si>
+  <si>
+    <t>First of all let me just say that I read all the reviews for this hotel. I read them thoroughly and booked based on the overwhelmingly positive comments. However, my stay was a different story.The property is old. That in itself is not a problem. It's clear that the staff at Comfort Inn Downey have done a good job with upkeep. The problem arises when issues concerning plumbing, the elevator, and insects (yes, bugs) present themselves over and over again. 
+First off, this "hotel" is located just off the very busy Firestone Blvd. On one hand it's great because of the convenience to shopping, all major highways, its proximity to LA. On the other hand it's a pain in the butt, because the traffic noise is almost unbearable at night -- it echoes throughout the courtyard. Things like traffic noise have never bothered me in the past, but the courtyard amplifies it. Also please note that this hotel is Salvation Army adjacent (can't see it the photos), and has outside access to the rooms. I felt like I was at a sleazy roadside motel every time I left the room. 
+The positive is that the room itself was fine. It was clean, so I can't complain. The plumbing is very loud (remember it's an older property), so I was awakened every morning around 5:30 am when my neighbor took a shower/flushed the toilet/etc. Also, you can smell it when the...First of all let me just say that I read all the reviews for this hotel. I read them thoroughly and booked based on the overwhelmingly positive comments. However, my stay was a different story.The property is old. That in itself is not a problem. It's clear that the staff at Comfort Inn Downey have done a good job with upkeep. The problem arises when issues concerning plumbing, the elevator, and insects (yes, bugs) present themselves over and over again. First off, this "hotel" is located just off the very busy Firestone Blvd. On one hand it's great because of the convenience to shopping, all major highways, its proximity to LA. On the other hand it's a pain in the butt, because the traffic noise is almost unbearable at night -- it echoes throughout the courtyard. Things like traffic noise have never bothered me in the past, but the courtyard amplifies it. Also please note that this hotel is Salvation Army adjacent (can't see it the photos), and has outside access to the rooms. I felt like I was at a sleazy roadside motel every time I left the room. The positive is that the room itself was fine. It was clean, so I can't complain. The plumbing is very loud (remember it's an older property), so I was awakened every morning around 5:30 am when my neighbor took a shower/flushed the toilet/etc. Also, you can smell it when the person next door is smoking. The gap between my door and the floor was a little too wide...so wide that at night every bug in California flies in because they're attracted by the lights. This may have been a problem specific to the room I had, but it's a BIG problem. On the bright side, the staff is extremely nice and courteous. Everyone was professional and helpful. The staff there are doing an amazing job with making lemonade out of this giant lemon of a hotel. I'm not trying to be super negative, I just wanted to write my experience here truthfully so that another traveler isn't swayed by all the positive reviews like I was.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2010</t>
+  </si>
+  <si>
+    <t>CID_Manager, General Manager at Quality Inn Near Downey Studios, responded to this reviewResponded June 14, 2010</t>
+  </si>
+  <si>
+    <t>Responded June 14, 2010</t>
+  </si>
+  <si>
+    <t>First of all let me just say that I read all the reviews for this hotel. I read them thoroughly and booked based on the overwhelmingly positive comments. However, my stay was a different story.The property is old. That in itself is not a problem. It's clear that the staff at Comfort Inn Downey have done a good job with upkeep. The problem arises when issues concerning plumbing, the elevator, and insects (yes, bugs) present themselves over and over again. 
+First off, this "hotel" is located just off the very busy Firestone Blvd. On one hand it's great because of the convenience to shopping, all major highways, its proximity to LA. On the other hand it's a pain in the butt, because the traffic noise is almost unbearable at night -- it echoes throughout the courtyard. Things like traffic noise have never bothered me in the past, but the courtyard amplifies it. Also please note that this hotel is Salvation Army adjacent (can't see it the photos), and has outside access to the rooms. I felt like I was at a sleazy roadside motel every time I left the room. 
+The positive is that the room itself was fine. It was clean, so I can't complain. The plumbing is very loud (remember it's an older property), so I was awakened every morning around 5:30 am when my neighbor took a shower/flushed the toilet/etc. Also, you can smell it when the...First of all let me just say that I read all the reviews for this hotel. I read them thoroughly and booked based on the overwhelmingly positive comments. However, my stay was a different story.The property is old. That in itself is not a problem. It's clear that the staff at Comfort Inn Downey have done a good job with upkeep. The problem arises when issues concerning plumbing, the elevator, and insects (yes, bugs) present themselves over and over again. First off, this "hotel" is located just off the very busy Firestone Blvd. On one hand it's great because of the convenience to shopping, all major highways, its proximity to LA. On the other hand it's a pain in the butt, because the traffic noise is almost unbearable at night -- it echoes throughout the courtyard. Things like traffic noise have never bothered me in the past, but the courtyard amplifies it. Also please note that this hotel is Salvation Army adjacent (can't see it the photos), and has outside access to the rooms. I felt like I was at a sleazy roadside motel every time I left the room. The positive is that the room itself was fine. It was clean, so I can't complain. The plumbing is very loud (remember it's an older property), so I was awakened every morning around 5:30 am when my neighbor took a shower/flushed the toilet/etc. Also, you can smell it when the person next door is smoking. The gap between my door and the floor was a little too wide...so wide that at night every bug in California flies in because they're attracted by the lights. This may have been a problem specific to the room I had, but it's a BIG problem. On the bright side, the staff is extremely nice and courteous. Everyone was professional and helpful. The staff there are doing an amazing job with making lemonade out of this giant lemon of a hotel. I'm not trying to be super negative, I just wanted to write my experience here truthfully so that another traveler isn't swayed by all the positive reviews like I was.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32308-d76773-r65391768-Quality_Inn_Near_Downey_Studios-Downey_California.html</t>
+  </si>
+  <si>
+    <t>65391768</t>
+  </si>
+  <si>
+    <t>05/26/2010</t>
+  </si>
+  <si>
+    <t>A good place to stay</t>
+  </si>
+  <si>
+    <t>I have been calling on paper mills in the area for about 10 years and have chosen the Comfort Inn, Downey for it's convenient location. Although I do not travel there very frequently, I have always been welcomed and the breakfast always seems to be ready, and always before scheduled.I will continue to stay here as long as I travel in CA.SimpkinsMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2010</t>
+  </si>
+  <si>
+    <t>CID_Manager, General Manager at Quality Inn Near Downey Studios, responded to this reviewResponded May 27, 2010</t>
+  </si>
+  <si>
+    <t>Responded May 27, 2010</t>
+  </si>
+  <si>
+    <t>I have been calling on paper mills in the area for about 10 years and have chosen the Comfort Inn, Downey for it's convenient location. Although I do not travel there very frequently, I have always been welcomed and the breakfast always seems to be ready, and always before scheduled.I will continue to stay here as long as I travel in CA.SimpkinsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32308-d76773-r65029591-Quality_Inn_Near_Downey_Studios-Downey_California.html</t>
+  </si>
+  <si>
+    <t>65029591</t>
+  </si>
+  <si>
+    <t>05/22/2010</t>
+  </si>
+  <si>
+    <t>Good value, comfortable room</t>
+  </si>
+  <si>
+    <t>Enjoyed the stay, good location.  The breakfast was more than continental with a selection of breads to toast, hot waffles, fruits, great coffee, cereals, and more.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2010</t>
+  </si>
+  <si>
+    <t>CID_Manager, General Manager at Quality Inn Near Downey Studios, responded to this reviewResponded May 24, 2010</t>
+  </si>
+  <si>
+    <t>Responded May 24, 2010</t>
+  </si>
+  <si>
+    <t>Enjoyed the stay, good location.  The breakfast was more than continental with a selection of breads to toast, hot waffles, fruits, great coffee, cereals, and more.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32308-d76773-r65024049-Quality_Inn_Near_Downey_Studios-Downey_California.html</t>
+  </si>
+  <si>
+    <t>65024049</t>
+  </si>
+  <si>
+    <t>Very good place to stay when in the Downey area</t>
+  </si>
+  <si>
+    <t>I went to visit my daughter woh lives in Santa Fe Springs and found this hotel through the internet as one of the closest to her home.The first impression when I checked in was very positive. The room was perfectly clean, and smelled very good.The complimentary breakfast is not too impressive but is better than nothing.The only thing that I must highlight on the negative side is that you can feel the noise of the cars driving by the street. I don't understand it because you can't here the TV's in next door rooms nor cconversations, and yes, you can hear the noise of the cars. In addition, if somebody takes a shower late at night in the room next to yours, you would definitely wake up because of the strong noise.The staff was very friendly. the hotel is close to lots of restaurants, and to I-5, and I-605.MoreShow less</t>
+  </si>
+  <si>
+    <t>I went to visit my daughter woh lives in Santa Fe Springs and found this hotel through the internet as one of the closest to her home.The first impression when I checked in was very positive. The room was perfectly clean, and smelled very good.The complimentary breakfast is not too impressive but is better than nothing.The only thing that I must highlight on the negative side is that you can feel the noise of the cars driving by the street. I don't understand it because you can't here the TV's in next door rooms nor cconversations, and yes, you can hear the noise of the cars. In addition, if somebody takes a shower late at night in the room next to yours, you would definitely wake up because of the strong noise.The staff was very friendly. the hotel is close to lots of restaurants, and to I-5, and I-605.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32308-d76773-r63703726-Quality_Inn_Near_Downey_Studios-Downey_California.html</t>
+  </si>
+  <si>
+    <t>63703726</t>
+  </si>
+  <si>
+    <t>05/09/2010</t>
+  </si>
+  <si>
+    <t>Pleasantly surprised with the location and detail to exterior property ...</t>
+  </si>
+  <si>
+    <t>This was the first time in the downey area so I had no idea what to expect.  My company frequents the area but i couldn't get any suggestions on where to stay.  With a bit of research and reading reviews on others sites i chose this location for convenience and booked online.  The price was fair and kept my within budget. Upon checking in I was amazed at the cleanliness of the property.  The washer and dryer, though outside, was fairly new and i had no reserves on putting my own clothes into someone elses machine (sometimes you wonder if your clothes are better off elsewhere).  I noticed the attention to detail with the landscaping and the paint seemed pretty fresh.  No cigarette butts, wow!      The staff was very proffessional and friendly in suggesting where to dine, I like that.  Finding a restaurant was effortless.  Lots to choose from. The location was on a fairly busy street but I only noticed morning traffic.  It was fairly quiet for being so close to the road.     If there were any suggestions I would like to say that maybe the bathrooms needed freshening up...everything worked just noticed a certain odor.MoreShow less</t>
+  </si>
+  <si>
+    <t>ManagementRep, Manager at Quality Inn Near Downey Studios, responded to this reviewResponded May 12, 2010</t>
+  </si>
+  <si>
+    <t>Responded May 12, 2010</t>
+  </si>
+  <si>
+    <t>This was the first time in the downey area so I had no idea what to expect.  My company frequents the area but i couldn't get any suggestions on where to stay.  With a bit of research and reading reviews on others sites i chose this location for convenience and booked online.  The price was fair and kept my within budget. Upon checking in I was amazed at the cleanliness of the property.  The washer and dryer, though outside, was fairly new and i had no reserves on putting my own clothes into someone elses machine (sometimes you wonder if your clothes are better off elsewhere).  I noticed the attention to detail with the landscaping and the paint seemed pretty fresh.  No cigarette butts, wow!      The staff was very proffessional and friendly in suggesting where to dine, I like that.  Finding a restaurant was effortless.  Lots to choose from. The location was on a fairly busy street but I only noticed morning traffic.  It was fairly quiet for being so close to the road.     If there were any suggestions I would like to say that maybe the bathrooms needed freshening up...everything worked just noticed a certain odor.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32308-d76773-r62625999-Quality_Inn_Near_Downey_Studios-Downey_California.html</t>
+  </si>
+  <si>
+    <t>62625999</t>
+  </si>
+  <si>
+    <t>04/27/2010</t>
+  </si>
+  <si>
+    <t>Not a place to do your paperwork</t>
+  </si>
+  <si>
+    <t>The only real complaint I have is the lack of AC outlets. There is not a single outlet anywhere near the desk where I needed to do some paperwork. I had to drag the desk half way across the room to reach one. Everything else was very nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>ManagementRep, Manager at Quality Inn Near Downey Studios, responded to this reviewResponded April 28, 2010</t>
+  </si>
+  <si>
+    <t>Responded April 28, 2010</t>
+  </si>
+  <si>
+    <t>The only real complaint I have is the lack of AC outlets. There is not a single outlet anywhere near the desk where I needed to do some paperwork. I had to drag the desk half way across the room to reach one. Everything else was very nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32308-d76773-r62207339-Quality_Inn_Near_Downey_Studios-Downey_California.html</t>
+  </si>
+  <si>
+    <t>62207339</t>
+  </si>
+  <si>
+    <t>04/22/2010</t>
+  </si>
+  <si>
+    <t>The best hotel in the city of DOWNEY C.A</t>
+  </si>
+  <si>
+    <t>this is one of the best comford inn hotel I have ever stay,friendly people, nice room,beds are really comfortable,and clean,and safe place..MoreShow less</t>
+  </si>
+  <si>
+    <t>ManagementRep, General Manager at Quality Inn Near Downey Studios, responded to this reviewResponded May 5, 2010</t>
+  </si>
+  <si>
+    <t>Responded May 5, 2010</t>
+  </si>
+  <si>
+    <t>this is one of the best comford inn hotel I have ever stay,friendly people, nice room,beds are really comfortable,and clean,and safe place..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32308-d76773-r61865067-Quality_Inn_Near_Downey_Studios-Downey_California.html</t>
+  </si>
+  <si>
+    <t>61865067</t>
+  </si>
+  <si>
+    <t>04/18/2010</t>
+  </si>
+  <si>
+    <t>Very Pleasant Surprise for the Money</t>
+  </si>
+  <si>
+    <t>On a business trip I was not sure of my destination I was headed towards Paramount, California when I called my wife to check on line for Choice Hotels in Paramount only to find out there were none.   She found one in Downey which was close to Paramount and the price was very very reasonable I asked her to book the room.   I was so surprised when I arrived the staff was great, the location was perfect ( I walked to dinner) the room was clean, good size, Wi Fi available everything was great.  I wold not hesitate to consider this location as a good stop over on all future trips in this direction nor would I hesitate to recommend this Comfort Inn as the place to stay.  This location provided a safe, clean well situated location.MoreShow less</t>
+  </si>
+  <si>
+    <t>ManagementRep, Manager at Quality Inn Near Downey Studios, responded to this reviewResponded April 20, 2010</t>
+  </si>
+  <si>
+    <t>Responded April 20, 2010</t>
+  </si>
+  <si>
+    <t>On a business trip I was not sure of my destination I was headed towards Paramount, California when I called my wife to check on line for Choice Hotels in Paramount only to find out there were none.   She found one in Downey which was close to Paramount and the price was very very reasonable I asked her to book the room.   I was so surprised when I arrived the staff was great, the location was perfect ( I walked to dinner) the room was clean, good size, Wi Fi available everything was great.  I wold not hesitate to consider this location as a good stop over on all future trips in this direction nor would I hesitate to recommend this Comfort Inn as the place to stay.  This location provided a safe, clean well situated location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32308-d76773-r46198764-Quality_Inn_Near_Downey_Studios-Downey_California.html</t>
+  </si>
+  <si>
+    <t>46198764</t>
+  </si>
+  <si>
+    <t>10/08/2009</t>
+  </si>
+  <si>
+    <t>Price was too good to be true</t>
+  </si>
+  <si>
+    <t>We (my business colleagues and I) elected to stay at this Comfort Inn primarily because of its proximity to where we would be working for the next week.  
+The hotel looked OK from the outside, with a fresh coat of paint.  However, our first clue that we were in a bad area was when we went to check in and had to be "buzzed in" to the office lobby.  The office door was actually kept LOCKED during business hours and had to be remotely opened by the employee behind the counter.  
+It was a Monday night, and my football team was playing.  I wanted nothing more than to settle in to a quiet comfortable room and watch the game on TV.  After 1/2 hour, the temperature in my room had not come down - the AC was not working.  I returned to the front desk to request a new room.  The next room they gave me had a loose / frayed cable connecting to the TV, making the game unwatchable.  When I returned to the front office again to see if I could get a new cable adapter, I was met with miss attitude "what is it this time?".  I was moved to a 3rd room, which was finally OK.
+In the morning, I went to the lobby to meet with my business associates and found that their continental breakfast was served in the same small office area that is...We (my business colleagues and I) elected to stay at this Comfort Inn primarily because of its proximity to where we would be working for the next week.  The hotel looked OK from the outside, with a fresh coat of paint.  However, our first clue that we were in a bad area was when we went to check in and had to be "buzzed in" to the office lobby.  The office door was actually kept LOCKED during business hours and had to be remotely opened by the employee behind the counter.  It was a Monday night, and my football team was playing.  I wanted nothing more than to settle in to a quiet comfortable room and watch the game on TV.  After 1/2 hour, the temperature in my room had not come down - the AC was not working.  I returned to the front desk to request a new room.  The next room they gave me had a loose / frayed cable connecting to the TV, making the game unwatchable.  When I returned to the front office again to see if I could get a new cable adapter, I was met with miss attitude "what is it this time?".  I was moved to a 3rd room, which was finally OK.In the morning, I went to the lobby to meet with my business associates and found that their continental breakfast was served in the same small office area that is used for check in.  There is literally seating for 6 - 8 people total.  With everyone stopping down for breakfast, there was no room to sit.  I took my breakfast back to my room, even though there was a sign on the door prohibiting this.Talking with my traveling companions, I learned their experience had been poor as well.  One found that the sheets were dirty in her room.  When she called the front desk for new ones, she was told that she would have to go down to the front desk to pick them up herself, as she was alone behind the counter.  The third person in our group had an OK room, but it was right next to the main road (highly traveled) and had difficulty sleeping through the night due to the noise.This is an older style "motel" format with doors that open to the outside, rather than to interior corridors.  It has received some updates over the years, but the format is just dated for today's business travelers.  I would have been able to tolerate those shortcomings, however, if the service had been at least adequate.  Sadly, it was not.  I have stayed in a number of Comfort Inn's in the past.  Most of them are pretty fair.  I will not stay at this one again, though.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2009</t>
+  </si>
+  <si>
+    <t>ManagementRep, General Manager at Quality Inn Near Downey Studios, responded to this reviewResponded October 9, 2009</t>
+  </si>
+  <si>
+    <t>Responded October 9, 2009</t>
+  </si>
+  <si>
+    <t>We (my business colleagues and I) elected to stay at this Comfort Inn primarily because of its proximity to where we would be working for the next week.  
+The hotel looked OK from the outside, with a fresh coat of paint.  However, our first clue that we were in a bad area was when we went to check in and had to be "buzzed in" to the office lobby.  The office door was actually kept LOCKED during business hours and had to be remotely opened by the employee behind the counter.  
+It was a Monday night, and my football team was playing.  I wanted nothing more than to settle in to a quiet comfortable room and watch the game on TV.  After 1/2 hour, the temperature in my room had not come down - the AC was not working.  I returned to the front desk to request a new room.  The next room they gave me had a loose / frayed cable connecting to the TV, making the game unwatchable.  When I returned to the front office again to see if I could get a new cable adapter, I was met with miss attitude "what is it this time?".  I was moved to a 3rd room, which was finally OK.
+In the morning, I went to the lobby to meet with my business associates and found that their continental breakfast was served in the same small office area that is...We (my business colleagues and I) elected to stay at this Comfort Inn primarily because of its proximity to where we would be working for the next week.  The hotel looked OK from the outside, with a fresh coat of paint.  However, our first clue that we were in a bad area was when we went to check in and had to be "buzzed in" to the office lobby.  The office door was actually kept LOCKED during business hours and had to be remotely opened by the employee behind the counter.  It was a Monday night, and my football team was playing.  I wanted nothing more than to settle in to a quiet comfortable room and watch the game on TV.  After 1/2 hour, the temperature in my room had not come down - the AC was not working.  I returned to the front desk to request a new room.  The next room they gave me had a loose / frayed cable connecting to the TV, making the game unwatchable.  When I returned to the front office again to see if I could get a new cable adapter, I was met with miss attitude "what is it this time?".  I was moved to a 3rd room, which was finally OK.In the morning, I went to the lobby to meet with my business associates and found that their continental breakfast was served in the same small office area that is used for check in.  There is literally seating for 6 - 8 people total.  With everyone stopping down for breakfast, there was no room to sit.  I took my breakfast back to my room, even though there was a sign on the door prohibiting this.Talking with my traveling companions, I learned their experience had been poor as well.  One found that the sheets were dirty in her room.  When she called the front desk for new ones, she was told that she would have to go down to the front desk to pick them up herself, as she was alone behind the counter.  The third person in our group had an OK room, but it was right next to the main road (highly traveled) and had difficulty sleeping through the night due to the noise.This is an older style "motel" format with doors that open to the outside, rather than to interior corridors.  It has received some updates over the years, but the format is just dated for today's business travelers.  I would have been able to tolerate those shortcomings, however, if the service had been at least adequate.  Sadly, it was not.  I have stayed in a number of Comfort Inn's in the past.  Most of them are pretty fair.  I will not stay at this one again, though.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32308-d76773-r36377015-Quality_Inn_Near_Downey_Studios-Downey_California.html</t>
+  </si>
+  <si>
+    <t>36377015</t>
+  </si>
+  <si>
+    <t>07/31/2009</t>
+  </si>
+  <si>
+    <t>Best value for money</t>
+  </si>
+  <si>
+    <t>I visited Los Angeles recently to see some of my relatives in Downey area. I was trying to find a decent hotel when I read some negative reviews about this hotel. Although I was a little skeptical but I still went ahead and booked a room here for 4 nights. Hotel from outside looked alright but when I entered the lobby, I was greeted by a smiling gentleman at the front desk who appeared very eager to be helpful and forthcoming. My check-in was a breeze and I was kind of happy to be at a seemingly safe and clean place. Lobby interior was pretty inviting in décor. Since I booked a regular room, I wasn’t expecting much but to my pleasant surprise, my room had pretty decent furniture and very comfortable beds. All night I had a sound sleep. Wireless connection was a little bit disappointing initially but then next morning I talked to the Manager and he reset the routers and later on I stayed connected pretty consistently. Their breakfast items were also nice, more than merely a continental breakfast. I especially loved the hot self-serve waffles. I was hoping to see some fresh cut fruit kind of things but then its too much asking from a midscale hotel like this where you just pay around $70-75 for a night. Surrounding area was also nice, they have a McDonalds, ElPollo Loco, Olive Garden and Jack-in-the-Box pretty close and...I visited Los Angeles recently to see some of my relatives in Downey area. I was trying to find a decent hotel when I read some negative reviews about this hotel. Although I was a little skeptical but I still went ahead and booked a room here for 4 nights. Hotel from outside looked alright but when I entered the lobby, I was greeted by a smiling gentleman at the front desk who appeared very eager to be helpful and forthcoming. My check-in was a breeze and I was kind of happy to be at a seemingly safe and clean place. Lobby interior was pretty inviting in décor. Since I booked a regular room, I wasn’t expecting much but to my pleasant surprise, my room had pretty decent furniture and very comfortable beds. All night I had a sound sleep. Wireless connection was a little bit disappointing initially but then next morning I talked to the Manager and he reset the routers and later on I stayed connected pretty consistently. Their breakfast items were also nice, more than merely a continental breakfast. I especially loved the hot self-serve waffles. I was hoping to see some fresh cut fruit kind of things but then its too much asking from a midscale hotel like this where you just pay around $70-75 for a night. Surrounding area was also nice, they have a McDonalds, ElPollo Loco, Olive Garden and Jack-in-the-Box pretty close and a nearby mall is a good place to hang around in your free time. I wish they had chosen a better color for hotel exterior but the rooms are a good value for the money paid.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2009</t>
+  </si>
+  <si>
+    <t>ManagementRep, General Manager at Quality Inn Near Downey Studios, responded to this reviewResponded August 1, 2009</t>
+  </si>
+  <si>
+    <t>Responded August 1, 2009</t>
+  </si>
+  <si>
+    <t>I visited Los Angeles recently to see some of my relatives in Downey area. I was trying to find a decent hotel when I read some negative reviews about this hotel. Although I was a little skeptical but I still went ahead and booked a room here for 4 nights. Hotel from outside looked alright but when I entered the lobby, I was greeted by a smiling gentleman at the front desk who appeared very eager to be helpful and forthcoming. My check-in was a breeze and I was kind of happy to be at a seemingly safe and clean place. Lobby interior was pretty inviting in décor. Since I booked a regular room, I wasn’t expecting much but to my pleasant surprise, my room had pretty decent furniture and very comfortable beds. All night I had a sound sleep. Wireless connection was a little bit disappointing initially but then next morning I talked to the Manager and he reset the routers and later on I stayed connected pretty consistently. Their breakfast items were also nice, more than merely a continental breakfast. I especially loved the hot self-serve waffles. I was hoping to see some fresh cut fruit kind of things but then its too much asking from a midscale hotel like this where you just pay around $70-75 for a night. Surrounding area was also nice, they have a McDonalds, ElPollo Loco, Olive Garden and Jack-in-the-Box pretty close and...I visited Los Angeles recently to see some of my relatives in Downey area. I was trying to find a decent hotel when I read some negative reviews about this hotel. Although I was a little skeptical but I still went ahead and booked a room here for 4 nights. Hotel from outside looked alright but when I entered the lobby, I was greeted by a smiling gentleman at the front desk who appeared very eager to be helpful and forthcoming. My check-in was a breeze and I was kind of happy to be at a seemingly safe and clean place. Lobby interior was pretty inviting in décor. Since I booked a regular room, I wasn’t expecting much but to my pleasant surprise, my room had pretty decent furniture and very comfortable beds. All night I had a sound sleep. Wireless connection was a little bit disappointing initially but then next morning I talked to the Manager and he reset the routers and later on I stayed connected pretty consistently. Their breakfast items were also nice, more than merely a continental breakfast. I especially loved the hot self-serve waffles. I was hoping to see some fresh cut fruit kind of things but then its too much asking from a midscale hotel like this where you just pay around $70-75 for a night. Surrounding area was also nice, they have a McDonalds, ElPollo Loco, Olive Garden and Jack-in-the-Box pretty close and a nearby mall is a good place to hang around in your free time. I wish they had chosen a better color for hotel exterior but the rooms are a good value for the money paid.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32308-d76773-r2602031-Quality_Inn_Near_Downey_Studios-Downey_California.html</t>
+  </si>
+  <si>
+    <t>2602031</t>
+  </si>
+  <si>
+    <t>09/25/2004</t>
+  </si>
+  <si>
+    <t>Dishonest manager, wouldn't stay there again</t>
+  </si>
+  <si>
+    <t>I stayed here for a couple of nights over a weekend in mid 2004.  The room was pleasant, except that the in-room fridge door wouldn't close all the way so contents wouldn't stay cold.  Otherwise, the room was fine.  What infuriated me is that when I checked out, the hotel tried to charge me for use of the in-room safe, and they tried to tack on an energy surcharge.  When I disputed these fees with them, they showed me the check-in form I had signed when I checked in showing my acceptance.  However, they had folded that piece of paper in half, hiding those fees from view. After arguing with the desk clerk for about 10 minutes, they agreed to remove the charges. The energy crisis is long gone in California, and there's no reason to add such a surcharge, especially when it was never disclosed anywhere on the web site or through their 800 operators.  I don't reward dishonest business people with repeat business, and I hope you are the same. There were also some "shady" types staying at this hotel, and I made sure I removed anything of value from my car. There are other places nearby that are nicer, and hopefully they don't try to stick you with extra fees.MoreShow less</t>
+  </si>
+  <si>
+    <t>ManagementRep, General Manager at Quality Inn Near Downey Studios, responded to this reviewResponded July 31, 2009</t>
+  </si>
+  <si>
+    <t>Responded July 31, 2009</t>
+  </si>
+  <si>
+    <t>I stayed here for a couple of nights over a weekend in mid 2004.  The room was pleasant, except that the in-room fridge door wouldn't close all the way so contents wouldn't stay cold.  Otherwise, the room was fine.  What infuriated me is that when I checked out, the hotel tried to charge me for use of the in-room safe, and they tried to tack on an energy surcharge.  When I disputed these fees with them, they showed me the check-in form I had signed when I checked in showing my acceptance.  However, they had folded that piece of paper in half, hiding those fees from view. After arguing with the desk clerk for about 10 minutes, they agreed to remove the charges. The energy crisis is long gone in California, and there's no reason to add such a surcharge, especially when it was never disclosed anywhere on the web site or through their 800 operators.  I don't reward dishonest business people with repeat business, and I hope you are the same. There were also some "shady" types staying at this hotel, and I made sure I removed anything of value from my car. There are other places nearby that are nicer, and hopefully they don't try to stick you with extra fees.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1516,2457 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>17279</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>17279</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>17279</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>60</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>17279</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>17279</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>73</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>17279</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>85</v>
+      </c>
+      <c r="O7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>17279</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O8" t="s">
+        <v>86</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>17279</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9" t="s">
+        <v>96</v>
+      </c>
+      <c r="L9" t="s">
+        <v>97</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O9" t="s">
+        <v>99</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>17279</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" t="s">
+        <v>105</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>98</v>
+      </c>
+      <c r="O10" t="s">
+        <v>86</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>17279</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>108</v>
+      </c>
+      <c r="J11" t="s">
+        <v>109</v>
+      </c>
+      <c r="K11" t="s">
+        <v>110</v>
+      </c>
+      <c r="L11" t="s">
+        <v>111</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>112</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>113</v>
+      </c>
+      <c r="X11" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>17279</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>117</v>
+      </c>
+      <c r="J12" t="s">
+        <v>118</v>
+      </c>
+      <c r="K12" t="s">
+        <v>119</v>
+      </c>
+      <c r="L12" t="s">
+        <v>120</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>121</v>
+      </c>
+      <c r="O12" t="s">
+        <v>60</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>122</v>
+      </c>
+      <c r="X12" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>17279</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>125</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>126</v>
+      </c>
+      <c r="J13" t="s">
+        <v>127</v>
+      </c>
+      <c r="K13" t="s">
+        <v>128</v>
+      </c>
+      <c r="L13" t="s">
+        <v>129</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>130</v>
+      </c>
+      <c r="X13" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>17279</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>133</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>134</v>
+      </c>
+      <c r="J14" t="s">
+        <v>135</v>
+      </c>
+      <c r="K14" t="s">
+        <v>136</v>
+      </c>
+      <c r="L14" t="s">
+        <v>137</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>138</v>
+      </c>
+      <c r="O14" t="s">
+        <v>60</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>139</v>
+      </c>
+      <c r="X14" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>17279</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>142</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>143</v>
+      </c>
+      <c r="J15" t="s">
+        <v>144</v>
+      </c>
+      <c r="K15" t="s">
+        <v>145</v>
+      </c>
+      <c r="L15" t="s">
+        <v>146</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>147</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>148</v>
+      </c>
+      <c r="X15" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>17279</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>151</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>152</v>
+      </c>
+      <c r="J16" t="s">
+        <v>153</v>
+      </c>
+      <c r="K16" t="s">
+        <v>154</v>
+      </c>
+      <c r="L16" t="s">
+        <v>155</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>156</v>
+      </c>
+      <c r="O16" t="s">
+        <v>157</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>158</v>
+      </c>
+      <c r="X16" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>17279</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>161</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>162</v>
+      </c>
+      <c r="J17" t="s">
+        <v>163</v>
+      </c>
+      <c r="K17" t="s">
+        <v>164</v>
+      </c>
+      <c r="L17" t="s">
+        <v>165</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>166</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17279</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>168</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>169</v>
+      </c>
+      <c r="J18" t="s">
+        <v>170</v>
+      </c>
+      <c r="K18" t="s">
+        <v>171</v>
+      </c>
+      <c r="L18" t="s">
+        <v>172</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>166</v>
+      </c>
+      <c r="O18" t="s">
+        <v>99</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17279</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>174</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>175</v>
+      </c>
+      <c r="J19" t="s">
+        <v>176</v>
+      </c>
+      <c r="K19" t="s">
+        <v>177</v>
+      </c>
+      <c r="L19" t="s">
+        <v>178</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>166</v>
+      </c>
+      <c r="O19" t="s">
+        <v>86</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>17279</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>179</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>180</v>
+      </c>
+      <c r="J20" t="s">
+        <v>181</v>
+      </c>
+      <c r="K20" t="s">
+        <v>182</v>
+      </c>
+      <c r="L20" t="s">
+        <v>183</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>184</v>
+      </c>
+      <c r="O20" t="s">
+        <v>99</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>17279</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>186</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>187</v>
+      </c>
+      <c r="J21" t="s">
+        <v>188</v>
+      </c>
+      <c r="K21" t="s">
+        <v>189</v>
+      </c>
+      <c r="L21" t="s">
+        <v>190</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>191</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>17279</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>192</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>193</v>
+      </c>
+      <c r="J22" t="s">
+        <v>194</v>
+      </c>
+      <c r="K22" t="s">
+        <v>195</v>
+      </c>
+      <c r="L22" t="s">
+        <v>196</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>197</v>
+      </c>
+      <c r="O22" t="s">
+        <v>157</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>3</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>198</v>
+      </c>
+      <c r="X22" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>17279</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>201</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>202</v>
+      </c>
+      <c r="J23" t="s">
+        <v>203</v>
+      </c>
+      <c r="K23" t="s">
+        <v>204</v>
+      </c>
+      <c r="L23" t="s">
+        <v>205</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>206</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>207</v>
+      </c>
+      <c r="X23" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>17279</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>210</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>211</v>
+      </c>
+      <c r="J24" t="s">
+        <v>212</v>
+      </c>
+      <c r="K24" t="s">
+        <v>213</v>
+      </c>
+      <c r="L24" t="s">
+        <v>214</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>215</v>
+      </c>
+      <c r="O24" t="s">
+        <v>60</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>216</v>
+      </c>
+      <c r="X24" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>17279</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>219</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>220</v>
+      </c>
+      <c r="J25" t="s">
+        <v>221</v>
+      </c>
+      <c r="K25" t="s">
+        <v>222</v>
+      </c>
+      <c r="L25" t="s">
+        <v>223</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s"/>
+      <c r="O25" t="s"/>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>17279</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>224</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>225</v>
+      </c>
+      <c r="J26" t="s">
+        <v>226</v>
+      </c>
+      <c r="K26" t="s">
+        <v>227</v>
+      </c>
+      <c r="L26" t="s">
+        <v>228</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>229</v>
+      </c>
+      <c r="O26" t="s">
+        <v>60</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>3</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>230</v>
+      </c>
+      <c r="X26" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>17279</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>233</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>234</v>
+      </c>
+      <c r="J27" t="s">
+        <v>226</v>
+      </c>
+      <c r="K27" t="s">
+        <v>235</v>
+      </c>
+      <c r="L27" t="s">
+        <v>236</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>229</v>
+      </c>
+      <c r="O27" t="s">
+        <v>60</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>230</v>
+      </c>
+      <c r="X27" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>17279</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>238</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>239</v>
+      </c>
+      <c r="J28" t="s">
+        <v>240</v>
+      </c>
+      <c r="K28" t="s">
+        <v>241</v>
+      </c>
+      <c r="L28" t="s">
+        <v>242</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="s">
+        <v>243</v>
+      </c>
+      <c r="O28" t="s">
+        <v>157</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1</v>
+      </c>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>244</v>
+      </c>
+      <c r="X28" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>17279</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>247</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>248</v>
+      </c>
+      <c r="J29" t="s">
+        <v>249</v>
+      </c>
+      <c r="K29" t="s">
+        <v>250</v>
+      </c>
+      <c r="L29" t="s">
+        <v>251</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>252</v>
+      </c>
+      <c r="O29" t="s">
+        <v>60</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>253</v>
+      </c>
+      <c r="X29" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>17279</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>256</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>257</v>
+      </c>
+      <c r="J30" t="s">
+        <v>258</v>
+      </c>
+      <c r="K30" t="s">
+        <v>259</v>
+      </c>
+      <c r="L30" t="s">
+        <v>260</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>261</v>
+      </c>
+      <c r="O30" t="s">
+        <v>60</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>262</v>
+      </c>
+      <c r="X30" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>17279</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>265</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>266</v>
+      </c>
+      <c r="J31" t="s">
+        <v>258</v>
+      </c>
+      <c r="K31" t="s">
+        <v>267</v>
+      </c>
+      <c r="L31" t="s">
+        <v>268</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>261</v>
+      </c>
+      <c r="O31" t="s">
+        <v>157</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>262</v>
+      </c>
+      <c r="X31" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>17279</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>270</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>271</v>
+      </c>
+      <c r="J32" t="s">
+        <v>272</v>
+      </c>
+      <c r="K32" t="s">
+        <v>273</v>
+      </c>
+      <c r="L32" t="s">
+        <v>274</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>261</v>
+      </c>
+      <c r="O32" t="s">
+        <v>60</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>275</v>
+      </c>
+      <c r="X32" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>17279</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>278</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>279</v>
+      </c>
+      <c r="J33" t="s">
+        <v>280</v>
+      </c>
+      <c r="K33" t="s">
+        <v>281</v>
+      </c>
+      <c r="L33" t="s">
+        <v>282</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>252</v>
+      </c>
+      <c r="O33" t="s">
+        <v>60</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>3</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>283</v>
+      </c>
+      <c r="X33" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>17279</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>286</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>287</v>
+      </c>
+      <c r="J34" t="s">
+        <v>288</v>
+      </c>
+      <c r="K34" t="s">
+        <v>289</v>
+      </c>
+      <c r="L34" t="s">
+        <v>290</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>252</v>
+      </c>
+      <c r="O34" t="s">
+        <v>99</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>291</v>
+      </c>
+      <c r="X34" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>17279</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>294</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>295</v>
+      </c>
+      <c r="J35" t="s">
+        <v>296</v>
+      </c>
+      <c r="K35" t="s">
+        <v>297</v>
+      </c>
+      <c r="L35" t="s">
+        <v>298</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>252</v>
+      </c>
+      <c r="O35" t="s">
+        <v>60</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>299</v>
+      </c>
+      <c r="X35" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>17279</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>302</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>303</v>
+      </c>
+      <c r="J36" t="s">
+        <v>304</v>
+      </c>
+      <c r="K36" t="s">
+        <v>305</v>
+      </c>
+      <c r="L36" t="s">
+        <v>306</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>307</v>
+      </c>
+      <c r="O36" t="s">
+        <v>60</v>
+      </c>
+      <c r="P36" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1</v>
+      </c>
+      <c r="S36" t="n">
+        <v>2</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>1</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>308</v>
+      </c>
+      <c r="X36" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>17279</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>311</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>312</v>
+      </c>
+      <c r="J37" t="s">
+        <v>313</v>
+      </c>
+      <c r="K37" t="s">
+        <v>314</v>
+      </c>
+      <c r="L37" t="s">
+        <v>315</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>316</v>
+      </c>
+      <c r="O37" t="s">
+        <v>99</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>317</v>
+      </c>
+      <c r="X37" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>17279</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>320</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>321</v>
+      </c>
+      <c r="J38" t="s">
+        <v>322</v>
+      </c>
+      <c r="K38" t="s">
+        <v>323</v>
+      </c>
+      <c r="L38" t="s">
+        <v>324</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>325</v>
+      </c>
+      <c r="X38" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>327</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_597.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_597.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="363">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Tony R</t>
+  </si>
+  <si>
     <t>07/08/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>SIOUXFANFOREVER</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32308-d76773-r468872294-Quality_Inn_Near_Downey_Studios-Downey_California.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Melinda D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32308-d76773-r440779040-Quality_Inn_Near_Downey_Studios-Downey_California.html</t>
   </si>
   <si>
@@ -222,6 +231,9 @@
     <t>Arrived here Thanksgiving night around 11:30 PM to a sound asleep reservation desk and just 1 tiny parking space. Waking the guy for check in was difficult and after I did the process was weird and slow because he was still asleep. The guy asked me twice upon checkin for my room number as well as info on my car, but not for my name until I suggested he might need it after several minutes.Our room was clean and the pillows were absolutely fantastic. The heat was hard to control but good at drowning out the street and other noise.When I went to check out, I had to wait around again for the manager and send a maintenance/cleaning person to find him.  Be careful here they insisted on making a photo copy of my driver's license as well as credit card and when pushed wouldn't destroy the cc copy because they use manual imprint and mine isn't raised. This is the perfect scam for identity and cc theft and the info is in no way secured, violating every cc processing rule in the books.I'd stay again because the pillows were so good and it's close to where we needed to be the next day.More</t>
   </si>
   <si>
+    <t>mikkie2003</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32308-d76773-r391146648-Quality_Inn_Near_Downey_Studios-Downey_California.html</t>
   </si>
   <si>
@@ -240,6 +252,9 @@
     <t>June 2016</t>
   </si>
   <si>
+    <t>Pat B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32308-d76773-r384296046-Quality_Inn_Near_Downey_Studios-Downey_California.html</t>
   </si>
   <si>
@@ -258,6 +273,9 @@
     <t>I stayed 3 nights and overall not to bad of a stay. The hotel rooms have recently been updated. I stayed here a few years back and can definitely see the difference. A few paint and wall issues from where someone pulled out the towel hanger in the bathroom and stains on the curtains, but everything else was clean.  I did have one issue the last night. The room air conditioner kept tripping the built in breaker. Every couple hours the room would get warm and I would have to get up and reset the switch for the A/C to turn back on.  Also I noticed without the noise from the A/C you could hear everything going on outside and the people with a dog next door.  I paid $380 for 3 nights and really got what I expected. More</t>
   </si>
   <si>
+    <t>jordin c</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32308-d76773-r361970538-Quality_Inn_Near_Downey_Studios-Downey_California.html</t>
   </si>
   <si>
@@ -279,6 +297,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>malv1363</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32308-d76773-r345971579-Quality_Inn_Near_Downey_Studios-Downey_California.html</t>
   </si>
   <si>
@@ -297,6 +318,9 @@
     <t>January 2016</t>
   </si>
   <si>
+    <t>Chris m</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32308-d76773-r323085861-Quality_Inn_Near_Downey_Studios-Downey_California.html</t>
   </si>
   <si>
@@ -321,6 +345,9 @@
     <t>We payed for our room online under the belief that we were getting a Comfort Inn. When we arrived we quickly realized this was not a Comfort Inn and the nightmare ensued. This is not a Comfort Inn. This is the Cambridge Inn. When we got to our room I noticed the deadbolt didn't work, there were cigarette burns all in the carpet, and it was dirty. The next day checking out they said the room smelt like cigarette smoke (since neither me nor my husband smoke this is not possible) and "to kiss our deposit goodbye". The desk man got very aggressive with me and my husband and yelled at us. They stole our $100 cash deposit. Also, I watched the morning desk man put out the continental breakfast with his dirty bare hands. I would not recommended eating the food, that is a clear health code violation. Don't stay here they will steal your deposit.More</t>
   </si>
   <si>
+    <t>Jason G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32308-d76773-r320707250-Quality_Inn_Near_Downey_Studios-Downey_California.html</t>
   </si>
   <si>
@@ -339,6 +366,9 @@
     <t>Where to begin? Well first of all this is not even a Comfort Inn anymore as advertised on hotels.com. I called hotels.com to upgrade to a whirlpool room as pictured for an extra $50 a night. Upon arrival the motel was now called Cambridge Inn. I was given the room right next to the office door which blocked off my door when open and was highly noisy. The room was nothing as pictured!! It's the basic tiny king bed room with a converted bathtub in the restroom. Definitely not the large room with whirlpool near the bed as pictured. I noticed the TV only had 3 channels and the fridge did not work. I called the rude woman at the front desk who said she didn't know about the TV channels offered. She placed me on hold for several minutes so I hung up and called Hotels.com to share my findings and asked to be moved to an upstairs room. Next thing I know I have 3 people knocking on the door: The maintenance man, manager, and awful front desk woman. She began to yell and verbally attack me for complaining and said she would charge my credit card $300 because my backpack smelled like medical marijuana. "You want to call and complain, Jason, well now I have a complaint against you and will charge you $300." She was acting very immature, rude, and hostile. I told her I would...Where to begin? Well first of all this is not even a Comfort Inn anymore as advertised on hotels.com. I called hotels.com to upgrade to a whirlpool room as pictured for an extra $50 a night. Upon arrival the motel was now called Cambridge Inn. I was given the room right next to the office door which blocked off my door when open and was highly noisy. The room was nothing as pictured!! It's the basic tiny king bed room with a converted bathtub in the restroom. Definitely not the large room with whirlpool near the bed as pictured. I noticed the TV only had 3 channels and the fridge did not work. I called the rude woman at the front desk who said she didn't know about the TV channels offered. She placed me on hold for several minutes so I hung up and called Hotels.com to share my findings and asked to be moved to an upstairs room. Next thing I know I have 3 people knocking on the door: The maintenance man, manager, and awful front desk woman. She began to yell and verbally attack me for complaining and said she would charge my credit card $300 because my backpack smelled like medical marijuana. "You want to call and complain, Jason, well now I have a complaint against you and will charge you $300." She was acting very immature, rude, and hostile. I told her I would file a chargeback and press charges for fraud if she attempted to charge my card. I was offered a cheaper room which didn't have the whirlpool I already paid for. I said no and asked them to move me to another room in the morning. The manager agreed but it wasn't until the next afternoon until I finally was able to move to another room. Keep in mind I never smoked in the room but the smell of my backpack is what set off the retaliation from the front desk clerk which spoke in broken English. Avoid this motel at all costs and DO NOT be fooled by the "Whirlpool room" pictures because you won't get the room pictured!More</t>
   </si>
   <si>
+    <t>GRGBOSS</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32308-d76773-r241029065-Quality_Inn_Near_Downey_Studios-Downey_California.html</t>
   </si>
   <si>
@@ -364,6 +394,9 @@
   </si>
   <si>
     <t>At first I was not thrilled with the hotel but once I enter my room what a wonderful surprise. The rooms are newly renovated. We got plenty of space for Family of 4. There is a washer and a dryer in the property useful if you want to save some bucks and be clean. Nice breakfast and very good price. There is a Target store, attractions and restaurants near the hotel. It is a nice and quiet area. we did not feel unsafe and we got near access to all the freeways. We spent one week so we got plenty of time to experience the hotel and the area. The property is under renovation and don't hesitate to use the hotel good service and amenities for a really good price.More</t>
+  </si>
+  <si>
+    <t>Haley A</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32308-d76773-r236266742-Quality_Inn_Near_Downey_Studios-Downey_California.html</t>
@@ -397,6 +430,9 @@
 After being away from the hotel for work for one day, I came back to find our room hadn't even been serviced and it was 5pm. Absolutely ridiculous. Room 206....I arrived at this hotel around 1030 at night. There was a VERY unclear sign pointing to the lobby, which is apparently under construction.  The lady working there didn't acknowledge our presence at the small window and just waved her hand to signal us around... me and another stranger proceeded to work around the building.  After no luck we came back and after probably 5 more minutes of not being acknowledged, we were finally "buzzed" in through a guest room under construction.  Completely unprofessional and rude. There could be MUCH better signage ESPECIALLY at night when people are arriving exhausted.Next, they didn't have any rooms with 2 beds so a roller bed was provided. Upon inspection of the roller bed I found multiple pieces of hair that obviously weren't mine. I also checked under the mattress of our bed (I work In hospitality myself,  and know what can live under there) and did not find bugs but I did find an abundance of crumbs and pieces of hair. The sink/ bathroom seemed to be falling apart... the surrounding area around the hotel is extremely ghetto with weird people lurking in the parking lot around our vehicles. There is also a creepy jacuzzi in the back of the parking lot.After being away from the hotel for work for one day, I came back to find our room hadn't even been serviced and it was 5pm. Absolutely ridiculous. Room 206. Do not stay here! It is horrible and as trashy as it getsMore</t>
   </si>
   <si>
+    <t>djlu</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32308-d76773-r228219658-Quality_Inn_Near_Downey_Studios-Downey_California.html</t>
   </si>
   <si>
@@ -421,6 +457,9 @@
     <t>The hotel is in a convenient location. Pulling into the lot we saw large amounts of debris from room remodels which was piled next to the rear parking area. Very unsightly, and can be seen from the Jacuzzi placed in the rear corner of the back parking area. Arrived after 8:00pm and was buzzed" into the small lobby to check in. The surrounding area justifies the need for additional security. Pleasant lady assisted us and we proceeded to the second floor. Walking to the room you pass by very poorly maintained walkways, extremely shabby exterior! We ask a passerby about the Jacuzzi, she warned that it was "scary and very dirty". Needless to say we didn't go in it. Entering the room provided some relief. The room was clean, and mostly updated with a relatively comfortable bed. The only obvious flaw was the damaged sink and some knicks and scratches on the wall and door. Air conditioning worked well as did the tv. We won't be partaking in the breakfast, but based on other reviews it's probably mediocre. Thanks for reading!More</t>
   </si>
   <si>
+    <t>WindTraveler101</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32308-d76773-r191748802-Quality_Inn_Near_Downey_Studios-Downey_California.html</t>
   </si>
   <si>
@@ -448,6 +487,9 @@
     <t>They are in the process of remodeling the hotel, but it still needs some updating. The windows are horrible, and they keep out hardly any noise. I am a heavy sleeper, and I can sleep through a lot, but I woke up numerous times each night due to noises. Sometimes because of vehicles and sometimes because of guests that were watching tv and being loud until well after midnight. There was some sort of trimming going on over a block away that sounded like it was right next to the hotel. The place was fairly clean, but there was nothing great about it, it was just a basic hotel. I won't stay there again because I would rather spend more money in a nicer area for a nicer hotel.The place was clean enough, but I probably won't stay there again.More</t>
   </si>
   <si>
+    <t>lucy1145</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32308-d76773-r188538385-Quality_Inn_Near_Downey_Studios-Downey_California.html</t>
   </si>
   <si>
@@ -475,6 +517,9 @@
     <t>I would not recommend this hotel to anybody! The room they gave us at first, the light switch did not work plus it smelled like they been doing drugs in that room. Also there was a lot of crazy people in this hotel and it is not a good area.More</t>
   </si>
   <si>
+    <t>Jeff H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32308-d76773-r181802430-Quality_Inn_Near_Downey_Studios-Downey_California.html</t>
   </si>
   <si>
@@ -505,6 +550,9 @@
     <t>The tub was patched poorly.  The shower curtain rod was about ready to fall down.  The carpet was stained, faded, and needed to be stretched.  The corners by the sink and the baseboard were really dirty.  Other than the cheap desk chair, there was no other place to sit.  There was a desk, but no light nearby.  The sink faucet leaked badly at the base.  The sink was cracked by the drain.  This really got to me.  There was a sign in the breakfast area asking that no food be brought to the rooms, yet there were only 2 tables.  Unlike most Comfort Inns, the rooms have exterior entrances.  Some of the rooms were being remodeled, but I would not stay there again, since they let my room get into such disrepair.More</t>
   </si>
   <si>
+    <t>_Mundo_Traveler_11</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32308-d76773-r151832162-Quality_Inn_Near_Downey_Studios-Downey_California.html</t>
   </si>
   <si>
@@ -526,6 +574,9 @@
     <t>It depends upon which room you are given. Some rooms in the same cateogry are twice as large as others. We had two rooms in our reservation, both had two queen beds. One room was twice the size of the other and was also much cleaner and better maintained. Our room had a water leak in the ceiling and the carpet looked as if it had been wet. For the price this is a good place to stay, but you can only expect what you are paying for. Be aware that there is the potential for some undesirable people around the property. One night we had a drunken woman screaming the the parking lot that she was going to kill herself. Two mornings later we saw what appeared to be a prostitute waiting for visitors in her room with the door proped open half way. For us we didn't feel in danger - we were looking for a low cost alternative. But some people may not be comfortable with this. The breakfast is acceptable.Forget the pool - it's the size of a hot tub in the corner of parking lot. very strange.the property is in a convenient location for highways access, etc.More</t>
   </si>
   <si>
+    <t>CharlotteKelowna</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32308-d76773-r150969591-Quality_Inn_Near_Downey_Studios-Downey_California.html</t>
   </si>
   <si>
@@ -559,6 +610,9 @@
     <t>I needed a room at the last minute and the manager happened to be on site so he remembered me and helped me book a room that I would have normally booked online. It's nice to be remembered , and it helped to get into a room quickly.</t>
   </si>
   <si>
+    <t>pattiangel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32308-d76773-r120548747-Quality_Inn_Near_Downey_Studios-Downey_California.html</t>
   </si>
   <si>
@@ -580,6 +634,9 @@
     <t>We tried to check in around 3:30 p.m. but a lower level room was not available.  We were offered an upstairs room but declined.   At 4:50 we were assigned to  a handicapped lower level  room.  The room was clean but austerer which is probably due to it being furnished for handicapped.   The room was spacious with frig, microwave, coffee pot and hair dryer.   The room appeared to have been recently refurbished and the bathroom was immaculate.    We passed by some of the non-handicapped rooms and they were nicely furnished.   The breakfast was good, seating area small, but very clean.  My only complaint was that there was some road noise which subsided very late at night.   Our room was close to the office and the road.  The noise may not be so noticeable if you get an upstairs room or room close to the back of the hotel.   We stayed one night before a cruise out of Long Beach.  The hotel is affordable, good value, and I  would  recommend this hotel for a pre-cruise stay.More</t>
   </si>
   <si>
+    <t>Alfredo S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32308-d76773-r119001977-Quality_Inn_Near_Downey_Studios-Downey_California.html</t>
   </si>
   <si>
@@ -625,6 +682,9 @@
     <t>My stay overall was good, and the front desk was very courteous and helpful to me, but you could here all the cars go by, but window was closed, and I would prefer pillows to be firmer. Too many pillows,all too soft. All I need is one or two firm pillows for a good nights sleep.More</t>
   </si>
   <si>
+    <t>los3sAmigos</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32308-d76773-r96653224-Quality_Inn_Near_Downey_Studios-Downey_California.html</t>
   </si>
   <si>
@@ -650,6 +710,9 @@
   </si>
   <si>
     <t>We stayed at this hotel because of the reviews &amp; of course the price was decent.  But unfortunately our stay was horrible.  The hotel is in a terrible location with a lot of loud noise.  They put us in a room right by the street where you could here all the noise &amp; cars drive by so we asked to be moved &amp; they said they had nothing available for us. So we stayed in the room. My husband woke up @ 1am in the morning to a loud dripping noise.  There was water coming through the wall from the room above us! When he touched the wall, his hand went through &amp; the whole wall was soaking wet. we knew it was totally unsafe so he asked to be moved because we felt it was very dangerous for our family. Who knows how long its been that way!  We had to carry our son who was already asleep to the floor above us! We complained the next morning &amp; the manager said there was really nothing he could do for us! We were staying there for 2 nights &amp; He didn't even offer to give us 1 free night! The new room they gave us wasn't much better. We could here dripping noises but thank good ness it didn't seap through the walls! The ironing board was broken &amp; they only gave us 2 towels.  Please Don't Stay Here.......We stayed at this hotel because of the reviews &amp; of course the price was decent.  But unfortunately our stay was horrible.  The hotel is in a terrible location with a lot of loud noise.  They put us in a room right by the street where you could here all the noise &amp; cars drive by so we asked to be moved &amp; they said they had nothing available for us. So we stayed in the room. My husband woke up @ 1am in the morning to a loud dripping noise.  There was water coming through the wall from the room above us! When he touched the wall, his hand went through &amp; the whole wall was soaking wet. we knew it was totally unsafe so he asked to be moved because we felt it was very dangerous for our family. Who knows how long its been that way!  We had to carry our son who was already asleep to the floor above us! We complained the next morning &amp; the manager said there was really nothing he could do for us! We were staying there for 2 nights &amp; He didn't even offer to give us 1 free night! The new room they gave us wasn't much better. We could here dripping noises but thank good ness it didn't seap through the walls! The ironing board was broken &amp; they only gave us 2 towels.  Please Don't Stay Here.... Even though it is a good price it is a terrible hotel with terrible service!!!!!!!!!!More</t>
+  </si>
+  <si>
+    <t>SXTHRPST</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32308-d76773-r89617445-Quality_Inn_Near_Downey_Studios-Downey_California.html</t>
@@ -681,6 +744,9 @@
 The first night I realized that the door to my room never reached the floor, there was a 1 and a half inch gap under the door.  Noise, Noise, Noise from traffic and no way to stop it. Single pane windows and that gap provided no stopping of any outside noise. I purchased earplugs and that took care of the problem. I had requested that no one enter my room for any reason as I was to have surgery and did not want to be disturbed.  The day of my surgery I was gone most of the day and night  When I returned I went straight to bed.  The next morning I realized my Ipod was gone. I reported it to managment and they said they would check into it.  Later they said they checked security tapes and no one entered my room. I never saw any tapes or was offered any redress for my Ipod. I know someone went inmy room because several towels were missing and whoever took my Ipod left the ear buds that were attached to it.  Managment took no responsibility and without looking at the tapes...When I checked for hotels in Downey I read the reviews on this hotel and was please to see positive reviews. I had to be there for 5 days for a medical proceedure.  At first glance I was pleased, Free everything was appealing and no complaints of bed bugs.The first night I realized that the door to my room never reached the floor, there was a 1 and a half inch gap under the door.  Noise, Noise, Noise from traffic and no way to stop it. Single pane windows and that gap provided no stopping of any outside noise. I purchased earplugs and that took care of the problem. I had requested that no one enter my room for any reason as I was to have surgery and did not want to be disturbed.  The day of my surgery I was gone most of the day and night  When I returned I went straight to bed.  The next morning I realized my Ipod was gone. I reported it to managment and they said they would check into it.  Later they said they checked security tapes and no one entered my room. I never saw any tapes or was offered any redress for my Ipod. I know someone went inmy room because several towels were missing and whoever took my Ipod left the ear buds that were attached to it.  Managment took no responsibility and without looking at the tapes myself, I have no way of proving anything so they can say or do whatever they want. I was happy up until this point but after this incident I would say dont risk it, dont stay here.More</t>
   </si>
   <si>
+    <t>Cmmj22</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32308-d76773-r69403633-Quality_Inn_Near_Downey_Studios-Downey_California.html</t>
   </si>
   <si>
@@ -696,6 +762,9 @@
     <t>I myself like this hotel very much it is very comfortable and the service is good the provide breakfAst in the morning how great!! They give u good tv and movies that come on are awesome!!</t>
   </si>
   <si>
+    <t>patmedina1506</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32308-d76773-r67716732-Quality_Inn_Near_Downey_Studios-Downey_California.html</t>
   </si>
   <si>
@@ -723,6 +792,9 @@
     <t>I used this room while a friend was in the hospital - I had schoolwork and needed the WIFI.  Appreciated the refrig and microwave, but it would have been nice to have a table in the room.Other than that, it was ok.  The staff was very helpful, gave me a nice room near the elevator where it was safe.More</t>
   </si>
   <si>
+    <t>CTusers</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32308-d76773-r67714249-Quality_Inn_Near_Downey_Studios-Downey_California.html</t>
   </si>
   <si>
@@ -736,6 +808,9 @@
   </si>
   <si>
     <t>The hotel is located in prime location in Downey California. The service was very pleasent, that agent was nice and welcoming. The room itself is very clean, and a small microwave and fridge to accommodate breakfast food. All together i like the location and service.  I highly recommend this hotel if youre in Downey for business of leisure.More</t>
+  </si>
+  <si>
+    <t>KitaTravels</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32308-d76773-r67333077-Quality_Inn_Near_Downey_Studios-Downey_California.html</t>
@@ -769,6 +844,9 @@
 The positive is that the room itself was fine. It was clean, so I can't complain. The plumbing is very loud (remember it's an older property), so I was awakened every morning around 5:30 am when my neighbor took a shower/flushed the toilet/etc. Also, you can smell it when the...First of all let me just say that I read all the reviews for this hotel. I read them thoroughly and booked based on the overwhelmingly positive comments. However, my stay was a different story.The property is old. That in itself is not a problem. It's clear that the staff at Comfort Inn Downey have done a good job with upkeep. The problem arises when issues concerning plumbing, the elevator, and insects (yes, bugs) present themselves over and over again. First off, this "hotel" is located just off the very busy Firestone Blvd. On one hand it's great because of the convenience to shopping, all major highways, its proximity to LA. On the other hand it's a pain in the butt, because the traffic noise is almost unbearable at night -- it echoes throughout the courtyard. Things like traffic noise have never bothered me in the past, but the courtyard amplifies it. Also please note that this hotel is Salvation Army adjacent (can't see it the photos), and has outside access to the rooms. I felt like I was at a sleazy roadside motel every time I left the room. The positive is that the room itself was fine. It was clean, so I can't complain. The plumbing is very loud (remember it's an older property), so I was awakened every morning around 5:30 am when my neighbor took a shower/flushed the toilet/etc. Also, you can smell it when the person next door is smoking. The gap between my door and the floor was a little too wide...so wide that at night every bug in California flies in because they're attracted by the lights. This may have been a problem specific to the room I had, but it's a BIG problem. On the bright side, the staff is extremely nice and courteous. Everyone was professional and helpful. The staff there are doing an amazing job with making lemonade out of this giant lemon of a hotel. I'm not trying to be super negative, I just wanted to write my experience here truthfully so that another traveler isn't swayed by all the positive reviews like I was.More</t>
   </si>
   <si>
+    <t>simtechinc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32308-d76773-r65391768-Quality_Inn_Near_Downey_Studios-Downey_California.html</t>
   </si>
   <si>
@@ -796,6 +874,9 @@
     <t>I have been calling on paper mills in the area for about 10 years and have chosen the Comfort Inn, Downey for it's convenient location. Although I do not travel there very frequently, I have always been welcomed and the breakfast always seems to be ready, and always before scheduled.I will continue to stay here as long as I travel in CA.SimpkinsMore</t>
   </si>
   <si>
+    <t>chaz2010</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32308-d76773-r65029591-Quality_Inn_Near_Downey_Studios-Downey_California.html</t>
   </si>
   <si>
@@ -823,6 +904,9 @@
     <t>Enjoyed the stay, good location.  The breakfast was more than continental with a selection of breads to toast, hot waffles, fruits, great coffee, cereals, and more.More</t>
   </si>
   <si>
+    <t>golflover26</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32308-d76773-r65024049-Quality_Inn_Near_Downey_Studios-Downey_California.html</t>
   </si>
   <si>
@@ -838,6 +922,9 @@
     <t>I went to visit my daughter woh lives in Santa Fe Springs and found this hotel through the internet as one of the closest to her home.The first impression when I checked in was very positive. The room was perfectly clean, and smelled very good.The complimentary breakfast is not too impressive but is better than nothing.The only thing that I must highlight on the negative side is that you can feel the noise of the cars driving by the street. I don't understand it because you can't here the TV's in next door rooms nor cconversations, and yes, you can hear the noise of the cars. In addition, if somebody takes a shower late at night in the room next to yours, you would definitely wake up because of the strong noise.The staff was very friendly. the hotel is close to lots of restaurants, and to I-5, and I-605.More</t>
   </si>
   <si>
+    <t>laughingvaheena</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32308-d76773-r63703726-Quality_Inn_Near_Downey_Studios-Downey_California.html</t>
   </si>
   <si>
@@ -862,6 +949,9 @@
     <t>This was the first time in the downey area so I had no idea what to expect.  My company frequents the area but i couldn't get any suggestions on where to stay.  With a bit of research and reading reviews on others sites i chose this location for convenience and booked online.  The price was fair and kept my within budget. Upon checking in I was amazed at the cleanliness of the property.  The washer and dryer, though outside, was fairly new and i had no reserves on putting my own clothes into someone elses machine (sometimes you wonder if your clothes are better off elsewhere).  I noticed the attention to detail with the landscaping and the paint seemed pretty fresh.  No cigarette butts, wow!      The staff was very proffessional and friendly in suggesting where to dine, I like that.  Finding a restaurant was effortless.  Lots to choose from. The location was on a fairly busy street but I only noticed morning traffic.  It was fairly quiet for being so close to the road.     If there were any suggestions I would like to say that maybe the bathrooms needed freshening up...everything worked just noticed a certain odor.More</t>
   </si>
   <si>
+    <t>Mpope57</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32308-d76773-r62625999-Quality_Inn_Near_Downey_Studios-Downey_California.html</t>
   </si>
   <si>
@@ -886,6 +976,9 @@
     <t>The only real complaint I have is the lack of AC outlets. There is not a single outlet anywhere near the desk where I needed to do some paperwork. I had to drag the desk half way across the room to reach one. Everything else was very nice.More</t>
   </si>
   <si>
+    <t>marioavila</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32308-d76773-r62207339-Quality_Inn_Near_Downey_Studios-Downey_California.html</t>
   </si>
   <si>
@@ -910,6 +1003,9 @@
     <t>this is one of the best comford inn hotel I have ever stay,friendly people, nice room,beds are really comfortable,and clean,and safe place..More</t>
   </si>
   <si>
+    <t>PalmDesertGolfer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32308-d76773-r61865067-Quality_Inn_Near_Downey_Studios-Downey_California.html</t>
   </si>
   <si>
@@ -932,6 +1028,9 @@
   </si>
   <si>
     <t>On a business trip I was not sure of my destination I was headed towards Paramount, California when I called my wife to check on line for Choice Hotels in Paramount only to find out there were none.   She found one in Downey which was close to Paramount and the price was very very reasonable I asked her to book the room.   I was so surprised when I arrived the staff was great, the location was perfect ( I walked to dinner) the room was clean, good size, Wi Fi available everything was great.  I wold not hesitate to consider this location as a good stop over on all future trips in this direction nor would I hesitate to recommend this Comfort Inn as the place to stay.  This location provided a safe, clean well situated location.More</t>
+  </si>
+  <si>
+    <t>FJRMaineiac</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32308-d76773-r46198764-Quality_Inn_Near_Downey_Studios-Downey_California.html</t>
@@ -967,6 +1066,9 @@
 In the morning, I went to the lobby to meet with my business associates and found that their continental breakfast was served in the same small office area that is...We (my business colleagues and I) elected to stay at this Comfort Inn primarily because of its proximity to where we would be working for the next week.  The hotel looked OK from the outside, with a fresh coat of paint.  However, our first clue that we were in a bad area was when we went to check in and had to be "buzzed in" to the office lobby.  The office door was actually kept LOCKED during business hours and had to be remotely opened by the employee behind the counter.  It was a Monday night, and my football team was playing.  I wanted nothing more than to settle in to a quiet comfortable room and watch the game on TV.  After 1/2 hour, the temperature in my room had not come down - the AC was not working.  I returned to the front desk to request a new room.  The next room they gave me had a loose / frayed cable connecting to the TV, making the game unwatchable.  When I returned to the front office again to see if I could get a new cable adapter, I was met with miss attitude "what is it this time?".  I was moved to a 3rd room, which was finally OK.In the morning, I went to the lobby to meet with my business associates and found that their continental breakfast was served in the same small office area that is used for check in.  There is literally seating for 6 - 8 people total.  With everyone stopping down for breakfast, there was no room to sit.  I took my breakfast back to my room, even though there was a sign on the door prohibiting this.Talking with my traveling companions, I learned their experience had been poor as well.  One found that the sheets were dirty in her room.  When she called the front desk for new ones, she was told that she would have to go down to the front desk to pick them up herself, as she was alone behind the counter.  The third person in our group had an OK room, but it was right next to the main road (highly traveled) and had difficulty sleeping through the night due to the noise.This is an older style "motel" format with doors that open to the outside, rather than to interior corridors.  It has received some updates over the years, but the format is just dated for today's business travelers.  I would have been able to tolerate those shortcomings, however, if the service had been at least adequate.  Sadly, it was not.  I have stayed in a number of Comfort Inn's in the past.  Most of them are pretty fair.  I will not stay at this one again, though.More</t>
   </si>
   <si>
+    <t>Way2swt</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32308-d76773-r36377015-Quality_Inn_Near_Downey_Studios-Downey_California.html</t>
   </si>
   <si>
@@ -992,6 +1094,9 @@
   </si>
   <si>
     <t>I visited Los Angeles recently to see some of my relatives in Downey area. I was trying to find a decent hotel when I read some negative reviews about this hotel. Although I was a little skeptical but I still went ahead and booked a room here for 4 nights. Hotel from outside looked alright but when I entered the lobby, I was greeted by a smiling gentleman at the front desk who appeared very eager to be helpful and forthcoming. My check-in was a breeze and I was kind of happy to be at a seemingly safe and clean place. Lobby interior was pretty inviting in décor. Since I booked a regular room, I wasn’t expecting much but to my pleasant surprise, my room had pretty decent furniture and very comfortable beds. All night I had a sound sleep. Wireless connection was a little bit disappointing initially but then next morning I talked to the Manager and he reset the routers and later on I stayed connected pretty consistently. Their breakfast items were also nice, more than merely a continental breakfast. I especially loved the hot self-serve waffles. I was hoping to see some fresh cut fruit kind of things but then its too much asking from a midscale hotel like this where you just pay around $70-75 for a night. Surrounding area was also nice, they have a McDonalds, ElPollo Loco, Olive Garden and Jack-in-the-Box pretty close and...I visited Los Angeles recently to see some of my relatives in Downey area. I was trying to find a decent hotel when I read some negative reviews about this hotel. Although I was a little skeptical but I still went ahead and booked a room here for 4 nights. Hotel from outside looked alright but when I entered the lobby, I was greeted by a smiling gentleman at the front desk who appeared very eager to be helpful and forthcoming. My check-in was a breeze and I was kind of happy to be at a seemingly safe and clean place. Lobby interior was pretty inviting in décor. Since I booked a regular room, I wasn’t expecting much but to my pleasant surprise, my room had pretty decent furniture and very comfortable beds. All night I had a sound sleep. Wireless connection was a little bit disappointing initially but then next morning I talked to the Manager and he reset the routers and later on I stayed connected pretty consistently. Their breakfast items were also nice, more than merely a continental breakfast. I especially loved the hot self-serve waffles. I was hoping to see some fresh cut fruit kind of things but then its too much asking from a midscale hotel like this where you just pay around $70-75 for a night. Surrounding area was also nice, they have a McDonalds, ElPollo Loco, Olive Garden and Jack-in-the-Box pretty close and a nearby mall is a good place to hang around in your free time. I wish they had chosen a better color for hotel exterior but the rooms are a good value for the money paid.More</t>
+  </si>
+  <si>
+    <t>maynard7</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32308-d76773-r2602031-Quality_Inn_Near_Downey_Studios-Downey_California.html</t>
@@ -1520,43 +1625,47 @@
       <c r="A2" t="n">
         <v>17279</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>4</v>
@@ -1576,50 +1685,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>17279</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1633,50 +1746,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>17279</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1690,50 +1807,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>17279</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1747,50 +1868,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>17279</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
         <v>77</v>
       </c>
-      <c r="L6" t="s">
-        <v>78</v>
-      </c>
-      <c r="M6" t="n">
-        <v>3</v>
-      </c>
-      <c r="N6" t="s">
-        <v>73</v>
-      </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1804,50 +1929,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>17279</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="J7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="M7" t="n">
         <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="O7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1861,50 +1990,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>17279</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="J8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="K8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="s">
+        <v>99</v>
+      </c>
+      <c r="O8" t="s">
         <v>92</v>
-      </c>
-      <c r="O8" t="s">
-        <v>86</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
@@ -1922,50 +2055,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>17279</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="K9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="L9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="O9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1979,50 +2116,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>17279</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>109</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="J10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="K10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="L10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="O10" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2036,50 +2177,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>17279</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>116</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="J11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="K11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="L11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -2097,56 +2242,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="X11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="Y11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>17279</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>126</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="J12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="K12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="L12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="O12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2158,47 +2307,51 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="X12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="Y12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>17279</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>136</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="J13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="K13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="L13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="M13" t="n">
         <v>2</v>
@@ -2225,56 +2378,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="X13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="Y13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>17279</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>145</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="J14" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="K14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="L14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="O14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P14" t="n">
         <v>3</v>
@@ -2296,56 +2453,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="X14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="Y14" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>17279</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>155</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="J15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="K15" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="L15" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="n">
         <v>2</v>
@@ -2367,56 +2528,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="X15" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="Y15" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>17279</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>165</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="J16" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="K16" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="L16" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="O16" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="P16" t="n">
         <v>3</v>
@@ -2438,56 +2603,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="X16" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="Y16" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>17279</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>176</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="J17" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="K17" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="L17" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="n">
         <v>4</v>
@@ -2511,50 +2680,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>17279</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>184</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="J18" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="K18" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="L18" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="O18" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="P18" t="n">
         <v>4</v>
@@ -2578,50 +2751,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>17279</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>93</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="J19" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="K19" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="L19" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="O19" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P19" t="n">
         <v>3</v>
@@ -2645,50 +2822,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>17279</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>196</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="J20" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="K20" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="L20" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="O20" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="P20" t="n">
         <v>4</v>
@@ -2712,50 +2893,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>17279</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>204</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="J21" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="K21" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="L21" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -2779,50 +2964,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>17279</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>93</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="J22" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="K22" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="L22" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="M22" t="n">
         <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="O22" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="P22" t="n">
         <v>3</v>
@@ -2844,56 +3033,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="X22" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="Y22" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>17279</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>220</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="J23" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="K23" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="L23" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="n">
         <v>3</v>
@@ -2915,56 +3108,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="X23" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="Y23" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>17279</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>230</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="J24" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="K24" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="L24" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="M24" t="n">
         <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="O24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P24" t="n">
         <v>4</v>
@@ -2986,47 +3183,51 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="X24" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="Y24" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>17279</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>240</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="J25" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="K25" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="L25" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
@@ -3055,50 +3256,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>17279</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>246</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="J26" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="K26" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="L26" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="O26" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -3120,56 +3325,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="X26" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="Y26" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>17279</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>256</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="J27" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="K27" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="L27" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="M27" t="n">
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="O27" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -3191,56 +3400,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="X27" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="Y27" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>17279</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>262</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="J28" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="K28" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="L28" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="M28" t="n">
         <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="O28" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="P28" t="n">
         <v>1</v>
@@ -3262,56 +3475,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="X28" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="Y28" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>17279</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>272</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="J29" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="K29" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="L29" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="O29" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P29" t="n">
         <v>4</v>
@@ -3333,56 +3550,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="X29" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="Y29" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>17279</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>282</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="J30" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="K30" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="L30" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="O30" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P30" t="n">
         <v>5</v>
@@ -3404,56 +3625,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="X30" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="Y30" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>17279</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>292</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="J31" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="K31" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="L31" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="O31" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -3475,56 +3700,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="X31" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="Y31" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>17279</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>298</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>270</v>
+        <v>299</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="J32" t="s">
-        <v>272</v>
+        <v>301</v>
       </c>
       <c r="K32" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="L32" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="M32" t="n">
         <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="O32" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -3546,56 +3775,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="X32" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="Y32" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>17279</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>307</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
+        <v>308</v>
+      </c>
+      <c r="G33" t="s">
+        <v>47</v>
+      </c>
+      <c r="H33" t="s">
+        <v>48</v>
+      </c>
+      <c r="I33" t="s">
+        <v>309</v>
+      </c>
+      <c r="J33" t="s">
+        <v>310</v>
+      </c>
+      <c r="K33" t="s">
+        <v>311</v>
+      </c>
+      <c r="L33" t="s">
+        <v>312</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
         <v>278</v>
       </c>
-      <c r="G33" t="s">
-        <v>46</v>
-      </c>
-      <c r="H33" t="s">
-        <v>47</v>
-      </c>
-      <c r="I33" t="s">
-        <v>279</v>
-      </c>
-      <c r="J33" t="s">
-        <v>280</v>
-      </c>
-      <c r="K33" t="s">
-        <v>281</v>
-      </c>
-      <c r="L33" t="s">
-        <v>282</v>
-      </c>
-      <c r="M33" t="n">
-        <v>3</v>
-      </c>
-      <c r="N33" t="s">
-        <v>252</v>
-      </c>
       <c r="O33" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P33" t="n">
         <v>4</v>
@@ -3617,56 +3850,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="X33" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="Y33" t="s">
-        <v>285</v>
+        <v>315</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>17279</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>316</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="J34" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="K34" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="L34" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="O34" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
@@ -3688,56 +3925,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>291</v>
+        <v>322</v>
       </c>
       <c r="X34" t="s">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="Y34" t="s">
-        <v>293</v>
+        <v>324</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>17279</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>325</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>294</v>
+        <v>326</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>295</v>
+        <v>327</v>
       </c>
       <c r="J35" t="s">
-        <v>296</v>
+        <v>328</v>
       </c>
       <c r="K35" t="s">
-        <v>297</v>
+        <v>329</v>
       </c>
       <c r="L35" t="s">
-        <v>298</v>
+        <v>330</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="O35" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -3759,56 +4000,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="X35" t="s">
-        <v>300</v>
+        <v>332</v>
       </c>
       <c r="Y35" t="s">
-        <v>301</v>
+        <v>333</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>17279</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>334</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>302</v>
+        <v>335</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="J36" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="K36" t="s">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="L36" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>307</v>
+        <v>340</v>
       </c>
       <c r="O36" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P36" t="n">
         <v>3</v>
@@ -3830,56 +4075,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="X36" t="s">
-        <v>309</v>
+        <v>342</v>
       </c>
       <c r="Y36" t="s">
-        <v>310</v>
+        <v>343</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>17279</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>344</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>311</v>
+        <v>345</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>312</v>
+        <v>346</v>
       </c>
       <c r="J37" t="s">
-        <v>313</v>
+        <v>347</v>
       </c>
       <c r="K37" t="s">
-        <v>314</v>
+        <v>348</v>
       </c>
       <c r="L37" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>316</v>
+        <v>350</v>
       </c>
       <c r="O37" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -3901,47 +4150,51 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>317</v>
+        <v>351</v>
       </c>
       <c r="X37" t="s">
-        <v>318</v>
+        <v>352</v>
       </c>
       <c r="Y37" t="s">
-        <v>319</v>
+        <v>353</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>17279</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>354</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>320</v>
+        <v>355</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>321</v>
+        <v>356</v>
       </c>
       <c r="J38" t="s">
-        <v>322</v>
+        <v>357</v>
       </c>
       <c r="K38" t="s">
-        <v>323</v>
+        <v>358</v>
       </c>
       <c r="L38" t="s">
-        <v>324</v>
+        <v>359</v>
       </c>
       <c r="M38" t="n">
         <v>2</v>
@@ -3958,13 +4211,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>325</v>
+        <v>360</v>
       </c>
       <c r="X38" t="s">
-        <v>326</v>
+        <v>361</v>
       </c>
       <c r="Y38" t="s">
-        <v>327</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
